--- a/アップロードサンプルデーター_220302.xlsx
+++ b/アップロードサンプルデーター_220302.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wud96\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wud96\LeotardHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951BEBE8-D355-409B-B011-080A216B48A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FFAD0A-BBF5-4D74-8B13-826F0E597AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="528" yWindow="432" windowWidth="22536" windowHeight="12216" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データー" sheetId="1" r:id="rId1"/>
     <sheet name="カラム別説明" sheetId="2" r:id="rId2"/>
     <sheet name="親子要素関係" sheetId="3" r:id="rId3"/>
+    <sheet name="wp_table関係" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="339">
   <si>
     <t>ID</t>
   </si>
@@ -1386,12 +1387,698 @@
     <t>サンプル2</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>meta_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>meta_key</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>meta_value</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>total_sales</t>
+  </si>
+  <si>
+    <t>_tax_status</t>
+  </si>
+  <si>
+    <t>_tax_class</t>
+  </si>
+  <si>
+    <t>_manage_stock</t>
+  </si>
+  <si>
+    <t>_backorders</t>
+  </si>
+  <si>
+    <t>_sold_individually</t>
+  </si>
+  <si>
+    <t>_virtual</t>
+  </si>
+  <si>
+    <t>_downloadable</t>
+  </si>
+  <si>
+    <t>_download_limit</t>
+  </si>
+  <si>
+    <t>_download_expiry</t>
+  </si>
+  <si>
+    <t>_stock</t>
+  </si>
+  <si>
+    <t>_stock_status</t>
+  </si>
+  <si>
+    <t>_wc_average_rating</t>
+  </si>
+  <si>
+    <t>_wc_review_count</t>
+  </si>
+  <si>
+    <t>attribute_pa_fabric2</t>
+  </si>
+  <si>
+    <t>attribute_pa_fabric</t>
+  </si>
+  <si>
+    <t>attribute_pa_size</t>
+  </si>
+  <si>
+    <t>_product_version</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>instock</t>
+  </si>
+  <si>
+    <t>watercolor</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>_regular_price</t>
+  </si>
+  <si>
+    <t>_thumbnail_id</t>
+  </si>
+  <si>
+    <t>_price</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>%e3%83%91%e3%82%bf%e3%83%b3%ef%bc%95</t>
+  </si>
+  <si>
+    <t>http://192.168.1.34/?post_type=product_variation&amp;p=6329</t>
+  </si>
+  <si>
+    <t>product_variation</t>
+  </si>
+  <si>
+    <t>post_author</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_date</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_date_gmt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_content</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_title</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_excerpt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>パタン５</t>
+  </si>
+  <si>
+    <t>サイズ: S, 生地: watercolor, 生地2: watercolor</t>
+  </si>
+  <si>
+    <t>post_status</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>comment_status</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ping_status</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_password</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>to_ping</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pinged</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_modified</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_modified_gmt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_content_filtered</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_parent</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>guid</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>menu_order</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>post_mime_type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>comment_count</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>wp_posts table</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>wp_postmeta table</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_variation_description</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_edit_lock</t>
+  </si>
+  <si>
+    <t>1647567750:1</t>
+  </si>
+  <si>
+    <t>_edit_last</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>_product_attributes</t>
+  </si>
+  <si>
+    <t>_wp_page_template</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>site-sidebar-layout</t>
+  </si>
+  <si>
+    <t>no-sidebar</t>
+  </si>
+  <si>
+    <t>site-content-layout</t>
+  </si>
+  <si>
+    <t>_elementor_template_type</t>
+  </si>
+  <si>
+    <t>wp-post</t>
+  </si>
+  <si>
+    <t>_elementor_version</t>
+  </si>
+  <si>
+    <t>3.5.6</t>
+  </si>
+  <si>
+    <t>_astra_content_layout_flag</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>site-post-title</t>
+  </si>
+  <si>
+    <t>ast-title-bar-display</t>
+  </si>
+  <si>
+    <t>ast-featured-img</t>
+  </si>
+  <si>
+    <t>_elementor_page_settings</t>
+  </si>
+  <si>
+    <t>_elementor_data</t>
+  </si>
+  <si>
+    <t>_elementor_edit_mode</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>_wc_rating_count</t>
+  </si>
+  <si>
+    <t>shopengine_product_views_count</t>
+  </si>
+  <si>
+    <t>_elementor_css</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>http://192.168.1.34/?post_type=product&amp;#038;p=6328</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[optioncode]
+[product_price]		
+  &lt;title&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정버전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/title&gt;
+                &lt;img id="set1" src="/wp-content/uploads/2022/01/5-4.png"&gt;
+               &lt;img id="k1" value="3000" src="/wp-content/uploads/2022/01/k1.jpg"&gt;
+               &lt;label for="k1"&gt;watercolor&lt;br&gt;3000円&lt;/label&gt;
+               &lt;img id="k2" value="2500" src="/wp-content/uploads/2022/01/k2.jpg"&gt;
+               &lt;label for="k2" &gt;teal&lt;br&gt;2500円&lt;/label&gt;
+               &lt;img id="k3" value="3500" src="/wp-content/uploads/2022/01/k3.jpg"&gt;
+               &lt;label for="k3"&gt;flower&lt;br&gt;3500円&lt;/label&gt;
+               &lt;img id="k4" value="1000" src="/wp-content/uploads/2022/01/k4.jpg"&gt;
+               &lt;label for="k4"&gt;bohemian&lt;br&gt;1000円&lt;/label&gt;
+               &lt;img id="k5" value="5500" src="/wp-content/uploads/2022/01/k5.jpg"&gt;
+               &lt;label for="k5"&gt;leaf&lt;br&gt;5500円&lt;/label&gt;
+               &lt;img id="k6" value="1800" src="/wp-content/uploads/2022/01/k6.jpg"&gt;
+               &lt;label for="k6"&gt;g-5&lt;br&gt;1800円&lt;/label&gt;
+                &lt;img id="set2" src = "/wp-content/uploads/2022/01/5-5.png"&gt;
+              &lt;img id="k1" value="3000" src="/wp-content/uploads/2022/01/k1.jpg"&gt;
+              &lt;label for="k1"&gt;watercolor&lt;br&gt;3000円&lt;/label&gt;
+              &lt;img id="k2" value="2500" src="/wp-content/uploads/2022/01/k2.jpg"&gt;
+              &lt;label for="k2" &gt;teal&lt;br&gt;2500円&lt;/label&gt;
+              &lt;img id="k3" value="3500" src="/wp-content/uploads/2022/01/k3.jpg"&gt;
+              &lt;label for="k3"&gt;flower&lt;br&gt;3500円&lt;/label&gt;
+              &lt;img id="k4" value="1000" src="/wp-content/uploads/2022/01/k4.jpg"&gt;
+              &lt;label for="k4"&gt;bohemian&lt;br&gt;1000円&lt;/label&gt;
+              &lt;img id="k5" value="5500" src="/wp-content/uploads/2022/01/k5.jpg"&gt;
+              &lt;label for="k5"&gt;leaf&lt;br&gt;5500円&lt;/label&gt;
+              &lt;img id="k6" value="2800" src="/wp-content/uploads/2022/01/k6.jpg"&gt;
+              &lt;label for="k6"&gt;g-5&lt;br&gt;2800円&lt;/label&gt;
+            &lt;img id="hidden"&gt;
+            &lt;canvas id="canvas" width="800" height="500"&gt;&lt;/canvas&gt;
+            &lt;canvas id="canvas-compose" width="800" height="500" style="display: none;"&gt;&lt;/canvas&gt;
+           &lt;!-- 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파츠가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+              &lt;canvas id="canvas-second" style="display: none;"&gt;&lt;/canvas&gt; --&gt;
+&lt;?php echo "this is test"; ?&gt;
+            &lt;center&gt;
+              &lt;input type="radio" id="size1" name="size" value="s"&gt;
+              &lt;label for="size1"&gt;S &lt;/label&gt;
+              &lt;input type="radio" id="size2"name="size" value="m"&gt;
+              &lt;label for="size2"&gt;M &lt;/label&gt;
+              &lt;input type="radio" id="size3" name="size" value="l"&gt;
+              &lt;label for="size3"&gt;L&lt;/label&gt;
+            &lt;button id="add"&gt;確認&lt;/button&gt;
+        &lt;button id="addtocart"&gt;この組み合わせで購入&lt;/button&gt;
+      &lt;/center&gt;</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>wp_posts as p</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>wp_postmeta as pm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p.ID = pm.post_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a:3:{s:7:"pa_size";a:6:{s:4:"name";s:7:"pa_size";s:5:"value";s:0:"";s:8:"position";i:0;s:10:"is_visible";i:0;s:12:"is_variation";i:1;s:11:"is_taxonomy";i:1;}s:9:"pa_fabric";a:6:{s:4:"name";s:9:"pa_fabric";s:5:"value";s:0:"";s:8:"position";i:1;s:10:"is_visible";i:0;s:12:"is_variation";i:1;s:11:"is_taxonomy";i:1;}s:10:"pa_fabric2";a:6:{s:4:"name";s:10:"pa_fabric2";s:5:"value";s:0:"";s:8:"position";i:2;s:10:"is_visible";i:0;s:12:"is_variation";i:1;s:11:"is_taxonomy";i:1;}}</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[{"id":"cd41944","elType":"section","settings":[],"elements":[{"id":"535782a","elType":"column","settings":{"_column_size":100,"_inline_size":null},"elements":[{"id":"a8cf88e","elType":"widget","settings":{"shortcode":"[optioncode]\n[product_price]"},"elements":[],"widgetType":"shortcode"},{"id":"a889637","elType":"widget","settings":{"html":"\r\n  &lt;title&gt; \uc218\uc815\ubc84\uc804 &lt;\/title&gt;\r\n        &lt;script src=\"https:\/\/ajax.googleapis.com\/ajax\/libs\/jquery\/3.5.1\/jquery.min.js\"&gt;&lt;\/script&gt;\r\n\r\n   \r\n    \r\n        &lt;div class=\"image-container pattern row\"&gt;\r\n            &lt;div class=\"left\"&gt;\r\n                &lt;img id=\"set1\" class=\"set\" src=\"\/wp-content\/uploads\/2022\/01\/5-4.png\"&gt;\r\n            &lt;\/div&gt;\r\n            &lt;div class=\"right\"&gt;\r\n\r\n               &lt;img id=\"k1\" value=\"3000\" src=\"\/wp-content\/uploads\/2022\/01\/k1.jpg\"&gt;\r\n               &lt;label for=\"k1\"&gt;watercolor&lt;br&gt;3000\u5186&lt;\/label&gt;\r\n               &lt;img id=\"k2\" value=\"2500\" src=\"\/wp-content\/uploads\/2022\/01\/k2.jpg\"&gt;\r\n               &lt;label for=\"k2\" &gt;teal&lt;br&gt;2500\u5186&lt;\/label&gt;\r\n               &lt;img id=\"k3\" value=\"3500\" src=\"\/wp-content\/uploads\/2022\/01\/k3.jpg\"&gt;\r\n               &lt;label for=\"k3\"&gt;flower&lt;br&gt;3500\u5186&lt;\/label&gt;\r\n               &lt;img id=\"k4\" value=\"1000\" src=\"\/wp-content\/uploads\/2022\/01\/k4.jpg\"&gt;\r\n               &lt;label for=\"k4\"&gt;bohemian&lt;br&gt;1000\u5186&lt;\/label&gt;\r\n               &lt;img id=\"k5\" value=\"5500\" src=\"\/wp-content\/uploads\/2022\/01\/k5.jpg\"&gt;\r\n               &lt;label for=\"k5\"&gt;leaf&lt;br&gt;5500\u5186&lt;\/label&gt;\r\n               &lt;img id=\"k6\" value=\"1800\" src=\"\/wp-content\/uploads\/2022\/01\/k6.jpg\"&gt;\r\n               &lt;label for=\"k6\"&gt;g-5&lt;br&gt;1800\u5186&lt;\/label&gt;\r\n\r\n            &lt;\/div&gt;\r\n        &lt;\/div&gt;\r\n\r\n        &lt;div class=\"image-container clothes row\"&gt;\r\n            &lt;div class=\"left\"&gt;\r\n                &lt;img id=\"set2\" class=\"set\" src = \"\/wp-content\/uploads\/2022\/01\/5-5.png\"&gt;\r\n            &lt;\/div&gt;\r\n            &lt;div class=\"right\"&gt;\r\n\r\n              &lt;img id=\"k1\" value=\"3000\" src=\"\/wp-content\/uploads\/2022\/01\/k1.jpg\"&gt;\r\n              &lt;label for=\"k1\"&gt;watercolor&lt;br&gt;3000\u5186&lt;\/label&gt;\r\n              &lt;img id=\"k2\" value=\"2500\" src=\"\/wp-content\/uploads\/2022\/01\/k2.jpg\"&gt;\r\n              &lt;label for=\"k2\" &gt;teal&lt;br&gt;2500\u5186&lt;\/label&gt;\r\n              &lt;img id=\"k3\" value=\"3500\" src=\"\/wp-content\/uploads\/2022\/01\/k3.jpg\"&gt;\r\n              &lt;label for=\"k3\"&gt;flower&lt;br&gt;3500\u5186&lt;\/label&gt;\r\n              &lt;img id=\"k4\" value=\"1000\" src=\"\/wp-content\/uploads\/2022\/01\/k4.jpg\"&gt;\r\n              &lt;label for=\"k4\"&gt;bohemian&lt;br&gt;1000\u5186&lt;\/label&gt;\r\n              &lt;img id=\"k5\" value=\"5500\" src=\"\/wp-content\/uploads\/2022\/01\/k5.jpg\"&gt;\r\n              &lt;label for=\"k5\"&gt;leaf&lt;br&gt;5500\u5186&lt;\/label&gt;\r\n              &lt;img id=\"k6\" value=\"2800\" src=\"\/wp-content\/uploads\/2022\/01\/k6.jpg\"&gt;\r\n              &lt;label for=\"k6\"&gt;g-5&lt;br&gt;2800\u5186&lt;\/label&gt;\r\n            &lt;\/div&gt;\r\n        &lt;\/div&gt;\r\n\r\n\r\n            &lt;img id=\"hidden\" class=\"base\"&gt;\r\n\r\n            &lt;canvas id=\"canvas\" width=\"800\" height=\"500\"&gt;&lt;\/canvas&gt;\r\n            &lt;canvas id=\"canvas-compose\" width=\"800\" height=\"500\" style=\"display: none;\"&gt;&lt;\/canvas&gt;\r\n           &lt;!-- 3\ubc88\uc9f8 \ud30c\uce20\uac00 \uc788\uc744 \uacbd\uc6b0 \uc0ac\uc6a9\r\n              &lt;canvas id=\"canvas-second\" style=\"display: none;\"&gt;&lt;\/canvas&gt; --&gt;\r\n\r\n            &lt;div id=\"option1\"&gt;&lt;\/div&gt;\r\n            &lt;div id=\"option2\"&gt;&lt;\/div&gt;\r\n            &lt;div id=\"option3\"&gt;&lt;\/div&gt;\r\n&lt;?php echo \"this is test\"; ?&gt;\r\n          \r\n            &lt;center&gt;\r\n              &lt;div class=\"checks\"&gt;\r\n              &lt;input type=\"radio\" id=\"size1\" name=\"size\" value=\"s\"&gt;\r\n              &lt;label for=\"size1\"&gt;S &lt;\/label&gt;\r\n              &lt;input type=\"radio\" id=\"size2\"name=\"size\" value=\"m\"&gt;\r\n              &lt;label for=\"size2\"&gt;M &lt;\/label&gt;\r\n              &lt;input type=\"radio\" id=\"size3\" name=\"size\" value=\"l\"&gt;\r\n              &lt;label for=\"size3\"&gt;L&lt;\/label&gt;\r\n            &lt;\/div&gt;\r\n\r\n            &lt;div class=\"frame\"&gt;\r\n              &lt;div class=\"box\" id=\"qty\"&gt;&lt;\/div&gt;\r\n            &lt;\/div&gt;\r\n            &lt;button id=\"add\"&gt;\u78ba\u8a8d&lt;\/button&gt;\r\n        \r\n        &lt;button id=\"addtocart\" class=\"hey\"&gt;\u3053\u306e\u7d44\u307f\u5408\u308f\u305b\u3067\u8cfc\u5165&lt;\/button&gt;\r\n      &lt;\/center&gt;\r\n\r\n    \r\n\r\n        &lt;script&gt;\r\n            \r\n            window.onload = function(){\r\n                var ctx_canvas = document.getElementById(\"canvas\");\r\n                var ctx =  ctx_canvas.getContext('2d');\r\n                var comctx_canvas = document.getElementById(\"canvas-compose\");\r\n                var comctx = comctx_canvas.getContext('2d');\r\n\r\n\r\n                \/\/ \ud328\ud134 \uac1d\uccb4 \uc0dd\uc131. \r\n                var n = new Image();\r\n                var b1 = new Image();\r\n\r\n                \/\/ \uc637\uac10 \uac1d\uccb4 \uc0dd\uc131. (\ub514\ud3f4\ud2b8\uc6a9)\r\n\r\n                \/*\r\n                var k1 = new Image();\r\n                var k2 = new Image();\r\n                var k3 = new Image();\r\n                var k4 = new Image();\r\n                var k5 = new Image();\r\n                var k6 = new Image();\r\n                *\/\r\n\r\n                \/\/ \uac1d\uccb4\uc5d0 \uc774\ubbf8\uc9c0 \ud30c\uc77c \ub85c\ub4dc\r\n                n.src = \"\/wp-content\/uploads\/2022\/01\/5-3.png\";\r\n                b1.src = \"\/wp-content\/uploads\/2022\/01\/5-2.png\";\r\n                k1.src = \"\/wp-content\/uploads\/2022\/01\/k1.jpg\";\r\n                \r\n\r\n                \/\/\ud55c \uce94\ubc84\uc2a4\uc5d0 \uadf8\ub9ac\uba74 \ud55c \ub369\uc5b4\ub9ac\uac00 \ub41c\ub2e4.(\ucd5c\uc885\uc801\uc73c\ub85c)\r\n\r\n                \/*\r\n                ctx.drawImage(n, 0, 0, 800, 500);    \/\/ ctx \uce94\ubc84\uc2a4\uc5d0 \ud328\ud134\uc744 \uadf8\ub9b0\ub2e4.\r\n                ctx.drawImage(b1, 0, 0, 800, 500);       \/\/ ctx \uce94\ubc84\uc2a4\uc5d0 \ud328\ud134\uc744 \uadf8\ub9b0\ub2e4.\r\n                *\/\r\n\r\n                comctx.drawImage(n, 0, 0, 800, 500);    \/\/ comctx \uce94\ubc84\uc2a4\uc5d0 \ud328\ud134\uc744 \uadf8\ub9b0\ub2e4.\r\n                ctx.drawImage(b1, 0, 0, 800, 500);       \/\/ ctx \uce94\ubc84\uc2a4\uc5d0 \ud328\ud134\uc744 \uadf8\ub9b0\ub2e4.\r\n                ctx.globalCompositeOperation = \"source-over\";   \/\/ \ud569\uc131 \ubaa8\ub4dc \uc124\uc815 (\ub36e\uc5b4\uc4f0\uae30)\r\n                ctx.drawImage(comctx_canvas, 0, 0, 800, 500);    \/\/ ctx \uce94\ubc84\uc2a4\uc5d0 comctx_canvas \uce94\ubc84\uc2a4 \ub36e\uc5b4\uc4f0\uae30\r\n\r\n                $(\".pattern img\").on('click',function(e){\r\n                    var id = $(this).attr(\"id\");\r\n                    var value = $(this).attr(\"value\");\r\n                    $(\"#hidden\").attr(\"src\", \"\/wp-content\/uploads\/2022\/01\/\" + id + \".jpg\");    \/\/ \ud074\ub9ad\ub41c \uc637\uac10\uc744 id \uac00 hidden \uc778 \uc704\uce58\uc5d0 \uc800\uc7a5\ud55c\ub2e4.\r\n                    $(\"#option1\").attr(\"class\", id ); \/\/ \ud074\ub9ad\ub41c \uc637\uac10\uc758 id\ub97c option1\uc758 class\uc5d0 \uc800\uc7a5\ud55c\ub2e4.\r\n                    $(\"#option1\").attr(\"value\", value); \/\/ \ud074\ub9ad\ub41c \uc637\uac10\uc758 value\ub97c option1\uc758 value\uc5d0 \uc800\uc7a5\ud55c\ub2e4.\r\n\r\n\r\n                    \/\/clipping code\r\n                    var img1 = document.getElementById(\"hidden\");   \/\/ \uc704\uc5d0 \uc800\uc7a5\ud55c \uc774\ubbf8\uc9c0\ub97c \ubcc0\uc218\ub85c \uc77d\uc5b4\uc628\ub2e4.\r\n\r\n                    \/\/ \ud328\ud134\uc5d0 \uc77d\uc5b4\uc628 \uc637\uac10 \uc774\ubbf8\uc9c0\ub97c \ud569\uc131\ud55c\ub2e4.\r\n                    ctx.drawImage(b1, 0, 0, 800, 500);\r\n                    ctx.globalCompositeOperation = \"source-in\";\r\n                    ctx.drawImage(img1, 0, 0, 800, 500);\r\n\r\n                    \/\/ \uc704\uc5d0\uc11c \ud569\uc131\ud55c \uc774\ubbf8\uc9c0\ub97c\r\n                    ctx.globalCompositeOperation = \"source-over\";\r\n                    ctx.drawImage(comctx_canvas, 0, 0, 800, 500);\r\n\r\n\r\n                })\r\n\r\n               \/\/ 2\ubc88 \ud328\ud134 \ud569\uc131. \uc704\uc758 \ucf54\ub4dc\uc640 \ub3d9\uc77c\ud55c \uad6c\uc870.\r\n                $(\".clothes img\").on('click',function(e){\r\n                    var id = $(this).attr(\"id\");\r\n                    var value = $(this).attr(\"value\");\r\n                    $(\"#hidden\").attr(\"src\", \"\/wp-content\/uploads\/2022\/01\/\" + id + \".jpg\");\r\n                    $(\"#option2\").attr(\"class\", id );\r\n                    $(\"#option2\").attr(\"value\", value);\r\n\r\n\r\n                    \/\/clipping code\r\n                    img1 = document.getElementById(\"hidden\");\r\n\r\n                    comctx.drawImage(n, 0, 0, 800, 500);\r\n                    comctx.globalCompositeOperation = \"source-in\";\r\n                    comctx.drawImage(img1, 0, 0, 800, 500);\r\n\r\n                    ctx.globalCompositeOperation = \"source-over\";\r\n                    ctx.drawImage(comctx_canvas, 0, 0, 800, 500);\r\n\r\n\r\n                })\r\n\r\n\r\n\r\n            }\r\n\r\n                  $(function(){\r\n\r\n                    $('#add').on('click',function(){\r\n                        var c1 = $(\"#option1\").attr(\"class\");\r\n                        var c2 = $(\"#option2\").attr(\"class\");\r\n                        var sized = $('input[name=size]:checked').val();\r\n\r\n                        var i = 6329;\r\n\r\n                      var result =(function(){\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+2;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+3;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+4;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+5;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i+6;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+7;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+1;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+8;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+9;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+10;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+11;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i+12;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+13;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+14;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+15;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+16;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+17;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i+18;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+19;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+20;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+21;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+22;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+23;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i+24;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+25;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+26;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+27;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+28;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+29;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 's') return i+30;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 's') return i+31;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 's') return i+32;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 's') return i+33;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 's') return i+34;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 's') return i+35;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+36;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+37;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+38;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+39;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+40;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+41;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+42;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+43;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+44;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+45;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+46;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+47;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+48;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+49;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+50;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+51;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+52;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+53;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+54;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+55;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+56;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+57;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+58;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+59;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+60;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+61;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+62;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+63;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+64;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+65;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'm') return i+66;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'm') return i+67;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'm') return i+68;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'm') return i+69;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'm') return i+70;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'm') return i+71;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+72;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+73;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+74;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+75;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+76;\r\n                        if(c1 == 'k1' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+77;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+78;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+79;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+80;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+81;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+82;\r\n                        if(c1 == 'k2' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+83;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+84;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+85;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+86;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+87;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+88;\r\n                        if(c1 == 'k3' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+89;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+90;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+91;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+92;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+93;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+94;\r\n                        if(c1 == 'k4' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+95;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+96;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+97;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+98;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+99;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+100;\r\n                        if(c1 == 'k5' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+101;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k1' &amp;&amp; sized == 'l') return i+102;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k2' &amp;&amp; sized == 'l') return i+103;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k3' &amp;&amp; sized == 'l') return i+104;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k4' &amp;&amp; sized == 'l') return i+105;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k5' &amp;&amp; sized == 'l') return i+106;\r\n                        if(c1 == 'k6' &amp;&amp; c2 == 'k6' &amp;&amp; sized == 'l') return i+107;\r\n\r\n\r\n                        return '6329';\r\n                      })();\r\n\r\n                var d1 = $(\"#option1\").attr(\"value\");\r\n                var d2 = $(\"#option2\").attr(\"value\");\r\n\r\n                var sum = parseInt(d1) + parseInt(d2);\r\n                document.getElementById(\"qty\").innerText = sum;\r\n\r\n                $('#addtocart').attr(\"onclick\",'location.href=\"http:\/\/192.168.1.34\/?add-to-cart=6328&amp;variation_id='+ result+'\"');\r\n\r\n                });\r\n\r\n            });\r\n\r\n   &lt;\/script&gt;\r\n"},"elements":[],"widgetType":"html"}],"isInner":false}],"isInner":false}]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a:12:{s:18:"eael_ext_toc_title";s:17:"Table of Contents";s:22:"eael_ext_scroll_to_top";s:0:"";s:29:"eael_ext_scroll_to_top_global";s:3:"yes";s:7:"padding";a:6:{s:4:"unit";s:2:"px";s:3:"top";s:1:"0";s:5:"right";s:1:"0";s:6:"bottom";s:1:"0";s:4:"left";s:1:"0";s:8:"isLinked";b:1;}s:38:"eael_ext_scroll_to_top_position_bottom";a:3:{s:4:"unit";s:2:"px";s:4:"size";i:85;s:5:"sizes";a:0:{}}s:37:"eael_ext_scroll_to_top_position_right";a:3:{s:4:"unit";s:2:"px";s:4:"size";i:17;s:5:"sizes";a:0:{}}s:47:"eael_ext_scroll_to_top_global_display_condition";s:5:"posts";s:25:"eael_ext_reading_progress";s:3:"yes";s:32:"eael_ext_reading_progress_global";s:3:"yes";s:36:"eael_ext_reading_progress_fill_color";s:7:"#7E2129";s:25:"eael_ext_table_of_content";s:0:"";s:11:"__globals__";a:1:{s:36:"eael_ext_reading_progress_fill_color";s:0:"";}}</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a:2:{i:4;i:1;i:5;i:1;}</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a:6:{s:4:"time";i:1647565611;s:5:"fonts";a:0:{}s:5:"icons";a:0:{}s:20:"dynamic_elements_ids";a:0:{}s:6:"status";s:4:"file";i:0;s:0:"";}</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>옵션상품들의 가격 중 최저가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>옵션상품들의 가격 중 최대가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>バリエーションのある商品（varia</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)- post_type : product_variation</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>バリエーションのある商品（varia</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ble</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>post_type : product</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_regular_price</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_sale_price</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>정규 가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>세일 중인 가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>유효가격 (계속 변동됩니다) 세일 설정이 되어있을 때는 _sale_price, 아닐 때는 _regular_price</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>wp_postmeta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>meta_key</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,8 +2263,156 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,8 +2598,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2119,6 +2960,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2248,7 +3158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2288,6 +3198,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2297,155 +3357,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2734,8 +3818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4280535" y="36195"/>
-          <a:ext cx="495300" cy="3775710"/>
+          <a:off x="4288155" y="752475"/>
+          <a:ext cx="480060" cy="3775710"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3132,6 +4216,505 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>286870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E51697C-7A9D-42B5-ABDF-D669E662E4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600635" y="1219199"/>
+          <a:ext cx="941294" cy="797859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>394447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BC0AAF-ABE4-4466-9A50-E994A67DA91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600635" y="12192000"/>
+          <a:ext cx="941294" cy="797859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>739139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09242E85-1CDB-4F3A-934C-30729F8C57FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539240" y="3805964"/>
+          <a:ext cx="1584960" cy="11068275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E372F6-5566-460A-AFD3-5912778949B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1541929" y="13554636"/>
+          <a:ext cx="1586753" cy="5360893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A10214-3DDF-47B7-80D5-E122B6E37D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1416536" y="2890780"/>
+          <a:ext cx="569258" cy="1261110"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793378</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B235AA06-5043-4E23-9614-66560AF8DE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1420906" y="12640235"/>
+          <a:ext cx="564777" cy="1264024"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1015703</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468856</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>78561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4F6942-3049-433D-A172-85D46EC93CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8376623" y="13668487"/>
+          <a:ext cx="2607833" cy="697574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>991946</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1376915" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA56DC3-1D3A-47CB-AE5B-9B82A713D79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8352866" y="13453782"/>
+          <a:ext cx="1376915" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>실제 표기되는 방식</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3428,10 +5011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="AC41" sqref="AC41"/>
@@ -3448,322 +5031,322 @@
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="52" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="52" t="s">
+      <c r="AA1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="52" t="s">
+      <c r="AB1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="52" t="s">
+      <c r="AC1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="52" t="s">
+      <c r="AD1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="52" t="s">
+      <c r="AE1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="52" t="s">
+      <c r="AF1" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="52" t="s">
+      <c r="AH1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="52" t="s">
+      <c r="AI1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="52" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AK1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="52" t="s">
+      <c r="AL1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="52" t="s">
+      <c r="AM1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="52" t="s">
+      <c r="AN1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="52" t="s">
+      <c r="AO1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="52" t="s">
+      <c r="AP1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" s="52" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" s="52" t="s">
+      <c r="AR1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="52" t="s">
+      <c r="AS1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="52" t="s">
+      <c r="AT1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="52" t="s">
+      <c r="AU1" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="64" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="1:47" s="35" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="35">
         <v>720</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="64">
-        <v>0</v>
-      </c>
-      <c r="F2" s="64">
-        <v>1</v>
-      </c>
-      <c r="G2" s="54" t="s">
+      <c r="E2" s="35">
+        <v>0</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="36">
         <v>44622</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="36">
         <v>44634</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="64">
-        <v>1</v>
-      </c>
-      <c r="O2" s="64">
+      <c r="N2" s="35">
+        <v>1</v>
+      </c>
+      <c r="O2" s="35">
         <v>150</v>
       </c>
-      <c r="P2" s="64">
+      <c r="P2" s="35">
         <v>10</v>
       </c>
-      <c r="Q2" s="64">
-        <v>1</v>
-      </c>
-      <c r="R2" s="64">
-        <v>1</v>
-      </c>
-      <c r="S2" s="64">
+      <c r="Q2" s="35">
+        <v>1</v>
+      </c>
+      <c r="R2" s="35">
+        <v>1</v>
+      </c>
+      <c r="S2" s="35">
         <v>500</v>
       </c>
-      <c r="T2" s="64">
+      <c r="T2" s="35">
         <v>50</v>
       </c>
-      <c r="U2" s="64">
+      <c r="U2" s="35">
         <v>50</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="35">
         <v>50</v>
       </c>
-      <c r="W2" s="64">
+      <c r="W2" s="35">
         <v>50</v>
       </c>
-      <c r="Y2" s="64">
+      <c r="Y2" s="35">
         <v>4300</v>
       </c>
-      <c r="Z2" s="64">
+      <c r="Z2" s="35">
         <v>6000</v>
       </c>
-      <c r="AA2" s="54" t="s">
+      <c r="AA2" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="54">
-        <v>1</v>
-      </c>
-      <c r="F3" s="54">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54" t="s">
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54">
-        <v>1</v>
-      </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54">
-        <v>1</v>
-      </c>
-      <c r="S3" s="54">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25">
+        <v>1</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25">
+        <v>1</v>
+      </c>
+      <c r="S3" s="25">
         <v>600</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54">
-        <v>1</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25">
+        <v>1</v>
+      </c>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25">
         <v>4000</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AA3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="54" t="s">
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="54" t="s">
+      <c r="AO3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AP3" s="54">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="54">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="54" t="s">
+      <c r="AP3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AS3" s="54" t="s">
+      <c r="AS3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="AT3" s="54">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="56">
+      <c r="AT3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
@@ -3851,12 +5434,12 @@
         <v>38</v>
       </c>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="58">
+      <c r="AU4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
@@ -3944,12 +5527,12 @@
         <v>40</v>
       </c>
       <c r="AT5" s="10"/>
-      <c r="AU5" s="58">
+      <c r="AU5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="57"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
@@ -4037,12 +5620,12 @@
         <v>42</v>
       </c>
       <c r="AT6" s="10"/>
-      <c r="AU6" s="58">
+      <c r="AU6" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="57"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
@@ -4130,12 +5713,12 @@
         <v>44</v>
       </c>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="58">
+      <c r="AU7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="57"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4223,12 +5806,12 @@
         <v>38</v>
       </c>
       <c r="AT8" s="10"/>
-      <c r="AU8" s="58">
+      <c r="AU8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="57"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4316,12 +5899,12 @@
         <v>40</v>
       </c>
       <c r="AT9" s="10"/>
-      <c r="AU9" s="58">
+      <c r="AU9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="57"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
@@ -4409,12 +5992,12 @@
         <v>42</v>
       </c>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="58">
+      <c r="AU10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
@@ -4502,12 +6085,12 @@
         <v>44</v>
       </c>
       <c r="AT11" s="10"/>
-      <c r="AU11" s="58">
+      <c r="AU11" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -4595,12 +6178,12 @@
         <v>38</v>
       </c>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="58">
+      <c r="AU12" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -4688,12 +6271,12 @@
         <v>40</v>
       </c>
       <c r="AT13" s="10"/>
-      <c r="AU13" s="58">
+      <c r="AU13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="57"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
@@ -4781,12 +6364,12 @@
         <v>42</v>
       </c>
       <c r="AT14" s="10"/>
-      <c r="AU14" s="58">
+      <c r="AU14" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="57"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
@@ -4874,12 +6457,12 @@
         <v>44</v>
       </c>
       <c r="AT15" s="10"/>
-      <c r="AU15" s="58">
+      <c r="AU15" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
@@ -4967,12 +6550,12 @@
         <v>38</v>
       </c>
       <c r="AT16" s="10"/>
-      <c r="AU16" s="58">
+      <c r="AU16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="57"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -5060,12 +6643,12 @@
         <v>40</v>
       </c>
       <c r="AT17" s="10"/>
-      <c r="AU17" s="58">
+      <c r="AU17" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="57"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5153,100 +6736,100 @@
         <v>42</v>
       </c>
       <c r="AT18" s="10"/>
-      <c r="AU18" s="58">
+      <c r="AU18" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="60">
-        <v>1</v>
-      </c>
-      <c r="F19" s="60">
-        <v>0</v>
-      </c>
-      <c r="G19" s="60" t="s">
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="60">
-        <v>1</v>
-      </c>
-      <c r="O19" s="60">
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31">
         <v>20</v>
       </c>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60">
-        <v>0</v>
-      </c>
-      <c r="R19" s="60">
-        <v>1</v>
-      </c>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60">
-        <v>0</v>
-      </c>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60">
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31">
+        <v>1</v>
+      </c>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31">
+        <v>0</v>
+      </c>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31">
         <v>4000</v>
       </c>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60" t="s">
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="60">
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31">
         <v>4</v>
       </c>
-      <c r="AN19" s="60" t="s">
+      <c r="AN19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AO19" s="60" t="s">
+      <c r="AO19" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="60" t="s">
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AS19" s="60" t="s">
+      <c r="AS19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AT19" s="60"/>
-      <c r="AU19" s="61">
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5272,7 +6855,7 @@
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="L20" t="s">
@@ -5295,108 +6878,108 @@
       </c>
     </row>
     <row r="21" spans="1:47" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="54">
-        <v>1</v>
-      </c>
-      <c r="F21" s="54">
-        <v>0</v>
-      </c>
-      <c r="G21" s="54" t="s">
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54">
-        <v>1</v>
-      </c>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54">
-        <v>1</v>
-      </c>
-      <c r="S21" s="54">
+      <c r="M21" s="25"/>
+      <c r="N21" s="25">
+        <v>1</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25">
+        <v>1</v>
+      </c>
+      <c r="S21" s="25">
         <v>600</v>
       </c>
-      <c r="T21" s="54">
+      <c r="T21" s="25">
         <v>150</v>
       </c>
-      <c r="U21" s="54">
+      <c r="U21" s="25">
         <v>30</v>
       </c>
-      <c r="V21" s="54">
+      <c r="V21" s="25">
         <v>60</v>
       </c>
-      <c r="W21" s="54">
-        <v>1</v>
-      </c>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54" t="s">
+      <c r="W21" s="25">
+        <v>1</v>
+      </c>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="54" t="s">
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AO21" s="54" t="s">
+      <c r="AO21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AP21" s="54">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="54">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="54" t="s">
+      <c r="AP21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AS21" s="54" t="s">
+      <c r="AS21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AT21" s="54">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="56">
+      <c r="AT21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="57"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -5486,12 +7069,12 @@
         <v>38</v>
       </c>
       <c r="AT22" s="10"/>
-      <c r="AU22" s="58">
+      <c r="AU22" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="57"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
@@ -5581,12 +7164,12 @@
         <v>40</v>
       </c>
       <c r="AT23" s="10"/>
-      <c r="AU23" s="58">
+      <c r="AU23" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="57"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="10" t="s">
         <v>34</v>
       </c>
@@ -5676,12 +7259,12 @@
         <v>42</v>
       </c>
       <c r="AT24" s="10"/>
-      <c r="AU24" s="58">
+      <c r="AU24" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
@@ -5769,12 +7352,12 @@
         <v>44</v>
       </c>
       <c r="AT25" s="10"/>
-      <c r="AU25" s="58">
+      <c r="AU25" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
@@ -5862,12 +7445,12 @@
         <v>38</v>
       </c>
       <c r="AT26" s="10"/>
-      <c r="AU26" s="58">
+      <c r="AU26" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="57"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -5955,12 +7538,12 @@
         <v>40</v>
       </c>
       <c r="AT27" s="10"/>
-      <c r="AU27" s="58">
+      <c r="AU27" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="57"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
@@ -6048,12 +7631,12 @@
         <v>42</v>
       </c>
       <c r="AT28" s="10"/>
-      <c r="AU28" s="58">
+      <c r="AU28" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="57"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
@@ -6141,12 +7724,12 @@
         <v>44</v>
       </c>
       <c r="AT29" s="10"/>
-      <c r="AU29" s="58">
+      <c r="AU29" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="57"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
@@ -6234,12 +7817,12 @@
         <v>38</v>
       </c>
       <c r="AT30" s="10"/>
-      <c r="AU30" s="58">
+      <c r="AU30" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="57"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
@@ -6327,12 +7910,12 @@
         <v>40</v>
       </c>
       <c r="AT31" s="10"/>
-      <c r="AU31" s="58">
+      <c r="AU31" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="57"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -6420,12 +8003,12 @@
         <v>42</v>
       </c>
       <c r="AT32" s="10"/>
-      <c r="AU32" s="58">
+      <c r="AU32" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
@@ -6513,12 +8096,12 @@
         <v>44</v>
       </c>
       <c r="AT33" s="10"/>
-      <c r="AU33" s="58">
+      <c r="AU33" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="57"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -6606,12 +8189,12 @@
         <v>38</v>
       </c>
       <c r="AT34" s="10"/>
-      <c r="AU34" s="58">
+      <c r="AU34" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
@@ -6699,12 +8282,12 @@
         <v>40</v>
       </c>
       <c r="AT35" s="10"/>
-      <c r="AU35" s="58">
+      <c r="AU35" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="57"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
@@ -6792,100 +8375,100 @@
         <v>42</v>
       </c>
       <c r="AT36" s="10"/>
-      <c r="AU36" s="58">
+      <c r="AU36" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:47" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="60">
-        <v>1</v>
-      </c>
-      <c r="F37" s="60">
-        <v>0</v>
-      </c>
-      <c r="G37" s="60" t="s">
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0</v>
+      </c>
+      <c r="G37" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60" t="s">
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N37" s="60">
-        <v>1</v>
-      </c>
-      <c r="O37" s="60">
+      <c r="N37" s="31">
+        <v>1</v>
+      </c>
+      <c r="O37" s="31">
         <v>20</v>
       </c>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60">
-        <v>0</v>
-      </c>
-      <c r="R37" s="60">
-        <v>1</v>
-      </c>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60">
-        <v>0</v>
-      </c>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60">
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31">
+        <v>0</v>
+      </c>
+      <c r="R37" s="31">
+        <v>1</v>
+      </c>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31">
+        <v>0</v>
+      </c>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31">
         <v>4000</v>
       </c>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60" t="s">
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="60">
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31">
         <v>16</v>
       </c>
-      <c r="AN37" s="60" t="s">
+      <c r="AN37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AO37" s="60" t="s">
+      <c r="AO37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AP37" s="60"/>
-      <c r="AQ37" s="60">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="60" t="s">
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AS37" s="60" t="s">
+      <c r="AS37" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AT37" s="60"/>
-      <c r="AU37" s="61">
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="32">
         <v>1</v>
       </c>
     </row>
@@ -6897,7 +8480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6915,17 +8498,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6933,25 +8516,25 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -6960,9 +8543,9 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -6971,9 +8554,9 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -6982,9 +8565,9 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -6995,9 +8578,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -7011,36 +8594,36 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13">
+      <c r="A10" s="63">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="18">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -7049,9 +8632,9 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32">
+      <c r="A11" s="64"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="18">
         <v>0</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -7060,13 +8643,13 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
+      <c r="A12" s="63">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -7075,9 +8658,9 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32">
+      <c r="A13" s="64"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -7086,13 +8669,13 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
+      <c r="A14" s="63">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -7101,9 +8684,9 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -7115,40 +8698,40 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="20" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7156,38 +8739,38 @@
       <c r="A19" s="3">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+      <c r="A21" s="63">
         <v>13</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="18">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -7196,9 +8779,9 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="32">
+      <c r="A22" s="64"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="18">
         <v>0</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -7207,13 +8790,13 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="13">
+      <c r="A23" s="63">
         <v>14</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -7222,9 +8805,9 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -7233,9 +8816,9 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -7247,23 +8830,23 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="13">
+      <c r="A27" s="63">
         <v>16</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="18">
         <v>1</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -7272,9 +8855,9 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="32">
+      <c r="A28" s="64"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="18">
         <v>0</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -7283,26 +8866,26 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13">
+      <c r="A29" s="63">
         <v>17</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="18">
         <v>1</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="32">
+      <c r="A30" s="64"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="18">
         <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -7314,25 +8897,25 @@
       <c r="A31" s="3">
         <v>18</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="13">
+      <c r="A32" s="63">
         <v>19</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="18">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -7341,9 +8924,9 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="32">
+      <c r="A33" s="64"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="18">
         <v>0</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -7355,254 +8938,254 @@
       <c r="A34" s="3">
         <v>20</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>21</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>22</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19">
+      <c r="A37" s="14">
         <v>23</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="19">
+      <c r="A38" s="14">
         <v>24</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="19">
+      <c r="A39" s="14">
         <v>25</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="39" t="s">
+      <c r="D39" s="55"/>
+      <c r="E39" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="19">
+      <c r="A40" s="14">
         <v>26</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="19">
+      <c r="A41" s="14">
         <v>27</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="62">
+      <c r="A42" s="33">
         <v>28</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="19">
+      <c r="A43" s="14">
         <v>29</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="48">
+      <c r="A44" s="44">
         <v>30</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="49"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="19">
+      <c r="A46" s="14">
         <v>31</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="19">
+      <c r="A47" s="14">
         <v>32</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="19">
+      <c r="A48" s="14">
         <v>33</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="48">
+      <c r="A49" s="44">
         <v>34</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="49"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="32" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="22" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="17">
+      <c r="A52" s="60">
         <v>35</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="18">
         <v>1</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -7613,9 +9196,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32">
+      <c r="A53" s="60"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="18">
         <v>0</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -7624,16 +9207,16 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="50">
+      <c r="A54" s="48">
         <v>36</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="32">
-        <v>1</v>
-      </c>
-      <c r="D54" s="39" t="s">
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>209</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -7641,12 +9224,12 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="51"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32">
-        <v>0</v>
-      </c>
-      <c r="D55" s="39" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="18">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>210</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -7655,27 +9238,20 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
@@ -7691,21 +9267,28 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7714,10 +9297,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7947,4 +9530,1395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6107A2-0840-4B61-96C4-8AADBAAC551D}">
+  <dimension ref="A2:X88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" customWidth="1"/>
+    <col min="10" max="11" width="13.59765625" customWidth="1"/>
+    <col min="12" max="12" width="14.8984375" customWidth="1"/>
+    <col min="13" max="13" width="14.59765625" customWidth="1"/>
+    <col min="16" max="17" width="20.796875" customWidth="1"/>
+    <col min="18" max="18" width="25.09765625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="16.19921875" customWidth="1"/>
+    <col min="22" max="22" width="20.69921875" customWidth="1"/>
+    <col min="23" max="23" width="16.296875" customWidth="1"/>
+    <col min="24" max="24" width="18.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="111"/>
+      <c r="D2" s="120"/>
+    </row>
+    <row r="3" spans="1:24" s="73" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="72"/>
+      <c r="B3" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="73" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="72"/>
+      <c r="B4" s="92" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B5" s="93"/>
+    </row>
+    <row r="6" spans="1:24" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B6" s="116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B7" s="116"/>
+    </row>
+    <row r="8" spans="1:24" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B8" s="111" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="72"/>
+      <c r="B10" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+    </row>
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="72"/>
+      <c r="B11" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="O11" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="R11" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S11" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="U11" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="V11" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="W11" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="X11" s="81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="72"/>
+      <c r="B12" s="96">
+        <v>6328</v>
+      </c>
+      <c r="C12" s="95">
+        <v>1</v>
+      </c>
+      <c r="D12" s="77">
+        <v>44589.652083333334</v>
+      </c>
+      <c r="E12" s="79">
+        <v>44589.277083333334</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77">
+        <v>44637.698611111111</v>
+      </c>
+      <c r="Q12" s="77">
+        <v>44637.323611111111</v>
+      </c>
+      <c r="R12" s="76"/>
+      <c r="S12" s="83">
+        <v>0</v>
+      </c>
+      <c r="T12" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="U12" s="75">
+        <v>0</v>
+      </c>
+      <c r="V12" s="107" t="s">
+        <v>316</v>
+      </c>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="72"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+    </row>
+    <row r="14" spans="1:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B15" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
+        <v>43158</v>
+      </c>
+      <c r="C16" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
+        <v>43159</v>
+      </c>
+      <c r="C17" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
+        <v>43160</v>
+      </c>
+      <c r="C18" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
+        <v>43161</v>
+      </c>
+      <c r="C19" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
+        <v>43162</v>
+      </c>
+      <c r="C20" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
+        <v>43163</v>
+      </c>
+      <c r="C21" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
+        <v>43164</v>
+      </c>
+      <c r="C22" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
+        <v>43165</v>
+      </c>
+      <c r="C23" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
+        <v>43166</v>
+      </c>
+      <c r="C24" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
+        <v>43167</v>
+      </c>
+      <c r="C25" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
+        <v>43168</v>
+      </c>
+      <c r="C26" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
+        <v>43169</v>
+      </c>
+      <c r="C27" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
+        <v>43170</v>
+      </c>
+      <c r="C28" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
+        <v>43171</v>
+      </c>
+      <c r="C29" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
+        <v>43172</v>
+      </c>
+      <c r="C30" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
+        <v>43173</v>
+      </c>
+      <c r="C31" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
+        <v>43174</v>
+      </c>
+      <c r="C32" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
+        <v>43175</v>
+      </c>
+      <c r="C33" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="110">
+        <v>45228</v>
+      </c>
+      <c r="C34" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="109">
+        <v>4297</v>
+      </c>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" s="110">
+        <v>45229</v>
+      </c>
+      <c r="C35" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" s="110">
+        <v>45230</v>
+      </c>
+      <c r="C36" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D36" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="110">
+        <v>45231</v>
+      </c>
+      <c r="C37" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D37" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="110">
+        <v>45233</v>
+      </c>
+      <c r="C38" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" s="110">
+        <v>45234</v>
+      </c>
+      <c r="C39" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D39" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B40" s="110">
+        <v>45235</v>
+      </c>
+      <c r="C40" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D40" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" s="110">
+        <v>45236</v>
+      </c>
+      <c r="C41" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" s="110">
+        <v>45237</v>
+      </c>
+      <c r="C42" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D42" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="110">
+        <v>45238</v>
+      </c>
+      <c r="C43" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D43" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+    </row>
+    <row r="44" spans="2:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
+        <v>45257</v>
+      </c>
+      <c r="C44" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
+        <v>45258</v>
+      </c>
+      <c r="C45" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
+        <v>52440</v>
+      </c>
+      <c r="C46" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
+        <v>55362</v>
+      </c>
+      <c r="C47" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
+        <v>57616</v>
+      </c>
+      <c r="C48" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
+        <v>60102</v>
+      </c>
+      <c r="C49" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D49" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="118">
+        <v>10000</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
+        <v>60103</v>
+      </c>
+      <c r="C50" s="100">
+        <v>6328</v>
+      </c>
+      <c r="D50" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="118">
+        <v>15000</v>
+      </c>
+      <c r="F50" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="15">
+        <v>60170</v>
+      </c>
+      <c r="C51" s="101">
+        <v>6328</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" s="119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="115"/>
+    </row>
+    <row r="54" spans="1:24" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B54" s="112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="72"/>
+      <c r="B56" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+    </row>
+    <row r="57" spans="1:24" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="72"/>
+      <c r="B57" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="J57" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="K57" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="M57" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="N57" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="O57" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="P57" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q57" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="R57" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S57" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="T57" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="U57" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="V57" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="W57" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="X57" s="81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="72"/>
+      <c r="B58" s="96">
+        <v>6329</v>
+      </c>
+      <c r="C58" s="95">
+        <v>1</v>
+      </c>
+      <c r="D58" s="77">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="E58" s="79">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="F58" s="76"/>
+      <c r="G58" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="K58" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="79">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="Q58" s="79">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="R58" s="76"/>
+      <c r="S58" s="83">
+        <v>6328</v>
+      </c>
+      <c r="T58" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="U58" s="75">
+        <v>59</v>
+      </c>
+      <c r="V58" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="72"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="91"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="85"/>
+      <c r="V59" s="91"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+    </row>
+    <row r="60" spans="1:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B61" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
+        <v>43176</v>
+      </c>
+      <c r="C62" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
+        <v>43177</v>
+      </c>
+      <c r="C63" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
+        <v>43178</v>
+      </c>
+      <c r="C64" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
+        <v>43179</v>
+      </c>
+      <c r="C65" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
+        <v>43180</v>
+      </c>
+      <c r="C66" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
+        <v>43181</v>
+      </c>
+      <c r="C67" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
+        <v>43182</v>
+      </c>
+      <c r="C68" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
+        <v>43183</v>
+      </c>
+      <c r="C69" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
+        <v>43184</v>
+      </c>
+      <c r="C70" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
+        <v>43185</v>
+      </c>
+      <c r="C71" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
+        <v>43186</v>
+      </c>
+      <c r="C72" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D72" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
+        <v>43187</v>
+      </c>
+      <c r="C73" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
+        <v>43188</v>
+      </c>
+      <c r="C74" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
+        <v>43189</v>
+      </c>
+      <c r="C75" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
+        <v>43190</v>
+      </c>
+      <c r="C76" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
+        <v>43191</v>
+      </c>
+      <c r="C77" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D77" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
+        <v>43192</v>
+      </c>
+      <c r="C78" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D78" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
+        <v>43193</v>
+      </c>
+      <c r="C79" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D79" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
+        <v>43194</v>
+      </c>
+      <c r="C80" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
+        <v>45649</v>
+      </c>
+      <c r="C81" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D81" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
+        <v>45650</v>
+      </c>
+      <c r="C82" s="100">
+        <v>6329</v>
+      </c>
+      <c r="D82" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B83" s="15">
+        <v>45651</v>
+      </c>
+      <c r="C83" s="101">
+        <v>6329</v>
+      </c>
+      <c r="D83" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B85" s="99" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B86" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/アップロードサンプルデーター_220302.xlsx
+++ b/アップロードサンプルデーター_220302.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wud96\LeotardHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FFAD0A-BBF5-4D74-8B13-826F0E597AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B03ED8-2ADA-4FD5-9EE2-E9C0C4BBD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="528" yWindow="432" windowWidth="22536" windowHeight="12216" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データー" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -1906,14 +1906,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>옵션상품들의 가격 중 최저가격</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>옵션상품들의 가격 중 최대가격</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <r>
       <t>バリエーションのある商品（varia</t>
     </r>
@@ -2073,12 +2065,407 @@
     </r>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <r>
+      <t>wp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>term_relationships table</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>object_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>term_taxonomy_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>term_order</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>wp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>term_taxonomy table</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>wp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>terms table</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>term_id</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>taxonomy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pa_fabric</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MossGreen
+Olive
+Hunter
+AppleGreen
+Chocolate
+Off White</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bohemian</t>
+  </si>
+  <si>
+    <t>bohemian</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>slug</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>term_group</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: S, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: teal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>2: bohemian</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>%e3%83%91%e3%82%bf%e3%83%b3%ef%bc%95-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://192.168.1.34/?post_type=product_variation&amp;p=6338</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pa_size</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>バリエーションのある商品（variation)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>post_type : product_variation</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>ID:6328</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>親</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 두는 항목들</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: L, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: g-5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>2: g-5</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>%e3%83%91%e3%82%bf%e3%83%b3%ef%bc%95-108</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://192.168.1.34/?post_type=product_variation&amp;p=6436</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">:6328의 경우 (사이즈*3)*(生地*6)*(生地2*6)의 조합으로 총 108개의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>product_vairiation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 가진다</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g-5</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>옵션가격 중 최저가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>옵션가격 중 최대가격</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2271,6 +2658,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
@@ -2411,8 +2807,56 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2604,8 +3048,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3029,8 +3479,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3157,8 +3700,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3207,6 +3753,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3219,6 +3768,9 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3372,88 +3924,91 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3468,36 +4023,30 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3507,13 +4056,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3522,17 +4068,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3560,6 +4187,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -4251,9 +4879,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4288,13 +4916,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>394447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4354,13 +4982,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>3584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>739139</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4383,9 +5011,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4420,13 +5048,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4492,7 +5120,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>792480</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>3584</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4516,12 +5144,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 89185"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -4547,13 +5175,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>394446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>793378</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4606,16 +5234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1015703</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66787</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146824</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>468856</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>78561</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1259554</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4638,8 +5266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8376623" y="13668487"/>
-          <a:ext cx="2607833" cy="697574"/>
+          <a:off x="4455588" y="16917872"/>
+          <a:ext cx="2609021" cy="718357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4655,10 +5283,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>991946</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>4482</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1396696</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127194</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1376915" cy="336246"/>
     <xdr:sp macro="" textlink="">
@@ -4674,7 +5302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8352866" y="13453782"/>
+          <a:off x="5705460" y="16877339"/>
           <a:ext cx="1376915" cy="336246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4712,6 +5340,1278 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99034895-EC1F-48DD-953D-167B93CE44DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8919882" y="17785977"/>
+          <a:ext cx="1604683" cy="4903694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1266093</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD44C2F-9077-4F1B-B201-58C9049DCA13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7356231" y="19565815"/>
+          <a:ext cx="1559169" cy="236702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1283677</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>269630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2925D50-1CA1-42BC-BC88-403EFDA10189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12602308" y="17877692"/>
+          <a:ext cx="1283677" cy="263769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>128954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>703384</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>137056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DA81CC-C662-4B3E-8FF6-932BD08C6A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13041923" y="18270416"/>
+          <a:ext cx="1559169" cy="236702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>932329</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1290918</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC18C3C2-79F7-48B6-9FD4-AEB0720DF952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1532964" y="4876799"/>
+          <a:ext cx="1299883" cy="412377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B359C8-8FAC-49C9-BA3F-51B59909DF49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1541929" y="19803036"/>
+          <a:ext cx="1299883" cy="5441576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFB3DCE-8F5D-4D10-8DE7-26EE8F4A462A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8821271" y="19803036"/>
+          <a:ext cx="1604682" cy="4984376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2B7D99-5BD7-459B-8E47-C35BCD935DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14277797" y="7830094"/>
+          <a:ext cx="1256117" cy="943792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1577340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>283028</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404AD478-9A69-44D1-A4AA-BF3F041FC9C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18230306" y="5962106"/>
+          <a:ext cx="1569720" cy="743493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>272142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629E16E8-1230-4080-9C1C-8D61693A316C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18230307" y="7151913"/>
+          <a:ext cx="1581694" cy="674915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1577340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D44F25F-4D8D-4C09-81E1-F03D1563F65C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19800026" y="5954486"/>
+          <a:ext cx="1608907" cy="751114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1290918</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>802341</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FEB8E5-05EA-4895-9A5C-109143B1E2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832847" y="5638800"/>
+          <a:ext cx="6790765" cy="2097742"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="コネクタ: カギ線 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893D4BCB-6CCF-4A12-8C70-ADD56C5545D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7311531" y="-2829995"/>
+          <a:ext cx="2570428" cy="15059891"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81487"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE590ED-E647-470D-BF62-A07A8F694B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15533914" y="6333853"/>
+          <a:ext cx="2696392" cy="2022566"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84316"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>798468</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>272142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BDF441-6CA4-43C1-BB9F-DB9ECE28BA53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="19562446" y="6164308"/>
+          <a:ext cx="500742" cy="1583326"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35378</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>650685</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D78F99-D993-4A9E-9C3A-80551FB042C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18258064" y="9348107"/>
+          <a:ext cx="9628678" cy="2506436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE455C52-4D7B-4FB6-B58F-BFDEA820DCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1534886" y="24416658"/>
+          <a:ext cx="1295400" cy="5377542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1294761</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00146240-E6C2-45B9-BCE2-702E35214EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1534886" y="6259286"/>
+          <a:ext cx="1294761" cy="411097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1294761</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>205549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D085A8B4-EDB1-4AA9-BD19-DC5F60B9472C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2829647" y="6464835"/>
+          <a:ext cx="5976896" cy="10707380"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62567"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591634</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922C2B1-0DFC-4618-BAE0-FB02691F0BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6206300" y="16521434"/>
+          <a:ext cx="386274" cy="17966"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 109181"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5017,7 +6917,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AC41" sqref="AC41"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5031,322 +6931,322 @@
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="23" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:47" s="25" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AR1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AS1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AT1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AU1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="35" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:47" s="37" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="37">
         <v>720</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="35">
-        <v>0</v>
-      </c>
-      <c r="F2" s="35">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="38">
         <v>44622</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="38">
         <v>44634</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="35">
-        <v>1</v>
-      </c>
-      <c r="O2" s="35">
+      <c r="N2" s="37">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37">
         <v>150</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="37">
         <v>10</v>
       </c>
-      <c r="Q2" s="35">
-        <v>1</v>
-      </c>
-      <c r="R2" s="35">
-        <v>1</v>
-      </c>
-      <c r="S2" s="35">
+      <c r="Q2" s="37">
+        <v>1</v>
+      </c>
+      <c r="R2" s="37">
+        <v>1</v>
+      </c>
+      <c r="S2" s="37">
         <v>500</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2" s="37">
         <v>50</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="37">
         <v>50</v>
       </c>
-      <c r="V2" s="35">
+      <c r="V2" s="37">
         <v>50</v>
       </c>
-      <c r="W2" s="35">
+      <c r="W2" s="37">
         <v>50</v>
       </c>
-      <c r="Y2" s="35">
+      <c r="Y2" s="37">
         <v>4300</v>
       </c>
-      <c r="Z2" s="35">
+      <c r="Z2" s="37">
         <v>6000</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25">
-        <v>1</v>
-      </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25">
-        <v>1</v>
-      </c>
-      <c r="S3" s="25">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27">
+        <v>1</v>
+      </c>
+      <c r="S3" s="27">
         <v>600</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25">
-        <v>1</v>
-      </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27">
+        <v>1</v>
+      </c>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27">
         <v>4000</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="25" t="s">
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="25" t="s">
+      <c r="AO3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AP3" s="25">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="25" t="s">
+      <c r="AP3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AS3" s="25" t="s">
+      <c r="AS3" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AT3" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="27">
+      <c r="AT3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
@@ -5434,12 +7334,12 @@
         <v>38</v>
       </c>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="29">
+      <c r="AU4" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
@@ -5527,12 +7427,12 @@
         <v>40</v>
       </c>
       <c r="AT5" s="10"/>
-      <c r="AU5" s="29">
+      <c r="AU5" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
@@ -5620,12 +7520,12 @@
         <v>42</v>
       </c>
       <c r="AT6" s="10"/>
-      <c r="AU6" s="29">
+      <c r="AU6" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
@@ -5713,12 +7613,12 @@
         <v>44</v>
       </c>
       <c r="AT7" s="10"/>
-      <c r="AU7" s="29">
+      <c r="AU7" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
@@ -5806,12 +7706,12 @@
         <v>38</v>
       </c>
       <c r="AT8" s="10"/>
-      <c r="AU8" s="29">
+      <c r="AU8" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
@@ -5899,12 +7799,12 @@
         <v>40</v>
       </c>
       <c r="AT9" s="10"/>
-      <c r="AU9" s="29">
+      <c r="AU9" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
@@ -5992,12 +7892,12 @@
         <v>42</v>
       </c>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="29">
+      <c r="AU10" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
@@ -6085,12 +7985,12 @@
         <v>44</v>
       </c>
       <c r="AT11" s="10"/>
-      <c r="AU11" s="29">
+      <c r="AU11" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -6178,12 +8078,12 @@
         <v>38</v>
       </c>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="29">
+      <c r="AU12" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -6271,12 +8171,12 @@
         <v>40</v>
       </c>
       <c r="AT13" s="10"/>
-      <c r="AU13" s="29">
+      <c r="AU13" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
@@ -6364,12 +8264,12 @@
         <v>42</v>
       </c>
       <c r="AT14" s="10"/>
-      <c r="AU14" s="29">
+      <c r="AU14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
@@ -6457,12 +8357,12 @@
         <v>44</v>
       </c>
       <c r="AT15" s="10"/>
-      <c r="AU15" s="29">
+      <c r="AU15" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
@@ -6550,12 +8450,12 @@
         <v>38</v>
       </c>
       <c r="AT16" s="10"/>
-      <c r="AU16" s="29">
+      <c r="AU16" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -6643,12 +8543,12 @@
         <v>40</v>
       </c>
       <c r="AT17" s="10"/>
-      <c r="AU17" s="29">
+      <c r="AU17" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="28"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -6736,100 +8636,100 @@
         <v>42</v>
       </c>
       <c r="AT18" s="10"/>
-      <c r="AU18" s="29">
+      <c r="AU18" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="31">
-        <v>1</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="E19" s="33">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31" t="s">
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
-      <c r="O19" s="31">
+      <c r="N19" s="33">
+        <v>1</v>
+      </c>
+      <c r="O19" s="33">
         <v>20</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31">
-        <v>0</v>
-      </c>
-      <c r="R19" s="31">
-        <v>1</v>
-      </c>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31">
-        <v>0</v>
-      </c>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31">
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <v>1</v>
+      </c>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33">
         <v>4000</v>
       </c>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31" t="s">
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31">
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33">
         <v>4</v>
       </c>
-      <c r="AN19" s="31" t="s">
+      <c r="AN19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AO19" s="31" t="s">
+      <c r="AO19" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="31" t="s">
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AS19" s="31" t="s">
+      <c r="AS19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="32">
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="34">
         <v>0</v>
       </c>
     </row>
@@ -6878,108 +8778,108 @@
       </c>
     </row>
     <row r="21" spans="1:47" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="25">
-        <v>1</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25">
-        <v>1</v>
-      </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25">
-        <v>1</v>
-      </c>
-      <c r="S21" s="25">
+      <c r="M21" s="27"/>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27">
+        <v>1</v>
+      </c>
+      <c r="S21" s="27">
         <v>600</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21" s="27">
         <v>150</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="27">
         <v>30</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="27">
         <v>60</v>
       </c>
-      <c r="W21" s="25">
-        <v>1</v>
-      </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25" t="s">
+      <c r="W21" s="27">
+        <v>1</v>
+      </c>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="25" t="s">
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AO21" s="25" t="s">
+      <c r="AO21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AP21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="25" t="s">
+      <c r="AP21" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="27">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AS21" s="25" t="s">
+      <c r="AS21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AT21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="27">
+      <c r="AT21" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -7069,12 +8969,12 @@
         <v>38</v>
       </c>
       <c r="AT22" s="10"/>
-      <c r="AU22" s="29">
+      <c r="AU22" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
@@ -7164,12 +9064,12 @@
         <v>40</v>
       </c>
       <c r="AT23" s="10"/>
-      <c r="AU23" s="29">
+      <c r="AU23" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="10" t="s">
         <v>34</v>
       </c>
@@ -7259,12 +9159,12 @@
         <v>42</v>
       </c>
       <c r="AT24" s="10"/>
-      <c r="AU24" s="29">
+      <c r="AU24" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
@@ -7352,12 +9252,12 @@
         <v>44</v>
       </c>
       <c r="AT25" s="10"/>
-      <c r="AU25" s="29">
+      <c r="AU25" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="28"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
@@ -7445,12 +9345,12 @@
         <v>38</v>
       </c>
       <c r="AT26" s="10"/>
-      <c r="AU26" s="29">
+      <c r="AU26" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="28"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -7538,12 +9438,12 @@
         <v>40</v>
       </c>
       <c r="AT27" s="10"/>
-      <c r="AU27" s="29">
+      <c r="AU27" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
@@ -7631,12 +9531,12 @@
         <v>42</v>
       </c>
       <c r="AT28" s="10"/>
-      <c r="AU28" s="29">
+      <c r="AU28" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="28"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
@@ -7724,12 +9624,12 @@
         <v>44</v>
       </c>
       <c r="AT29" s="10"/>
-      <c r="AU29" s="29">
+      <c r="AU29" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="28"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
@@ -7817,12 +9717,12 @@
         <v>38</v>
       </c>
       <c r="AT30" s="10"/>
-      <c r="AU30" s="29">
+      <c r="AU30" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="28"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
@@ -7910,12 +9810,12 @@
         <v>40</v>
       </c>
       <c r="AT31" s="10"/>
-      <c r="AU31" s="29">
+      <c r="AU31" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="28"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -8003,12 +9903,12 @@
         <v>42</v>
       </c>
       <c r="AT32" s="10"/>
-      <c r="AU32" s="29">
+      <c r="AU32" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="28"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
@@ -8096,12 +9996,12 @@
         <v>44</v>
       </c>
       <c r="AT33" s="10"/>
-      <c r="AU33" s="29">
+      <c r="AU33" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="28"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -8189,12 +10089,12 @@
         <v>38</v>
       </c>
       <c r="AT34" s="10"/>
-      <c r="AU34" s="29">
+      <c r="AU34" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="28"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
@@ -8282,12 +10182,12 @@
         <v>40</v>
       </c>
       <c r="AT35" s="10"/>
-      <c r="AU35" s="29">
+      <c r="AU35" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="28"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
@@ -8375,100 +10275,100 @@
         <v>42</v>
       </c>
       <c r="AT36" s="10"/>
-      <c r="AU36" s="29">
+      <c r="AU36" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:47" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="31">
-        <v>1</v>
-      </c>
-      <c r="F37" s="31">
-        <v>0</v>
-      </c>
-      <c r="G37" s="31" t="s">
+      <c r="E37" s="33">
+        <v>1</v>
+      </c>
+      <c r="F37" s="33">
+        <v>0</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31" t="s">
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N37" s="31">
-        <v>1</v>
-      </c>
-      <c r="O37" s="31">
+      <c r="N37" s="33">
+        <v>1</v>
+      </c>
+      <c r="O37" s="33">
         <v>20</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31">
-        <v>0</v>
-      </c>
-      <c r="R37" s="31">
-        <v>1</v>
-      </c>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31">
-        <v>0</v>
-      </c>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31">
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33">
+        <v>0</v>
+      </c>
+      <c r="R37" s="33">
+        <v>1</v>
+      </c>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33">
+        <v>0</v>
+      </c>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33">
         <v>4000</v>
       </c>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31" t="s">
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31">
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33">
         <v>16</v>
       </c>
-      <c r="AN37" s="31" t="s">
+      <c r="AN37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AO37" s="31" t="s">
+      <c r="AO37" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="31" t="s">
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AS37" s="31" t="s">
+      <c r="AS37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="32">
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="34">
         <v>1</v>
       </c>
     </row>
@@ -8498,17 +10398,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="20" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8516,25 +10416,25 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63">
+      <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -8543,9 +10443,9 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="65"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -8554,9 +10454,9 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="65"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -8565,9 +10465,9 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="65"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -8578,9 +10478,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="64"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -8594,36 +10494,36 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="63">
+      <c r="A10" s="65">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -8632,9 +10532,9 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="64"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="18">
+      <c r="A11" s="66"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="19">
         <v>0</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -8643,13 +10543,13 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="63">
+      <c r="A12" s="65">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -8658,9 +10558,9 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="64"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="18">
+      <c r="A13" s="66"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="19">
         <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -8669,13 +10569,13 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="63">
+      <c r="A14" s="65">
         <v>7</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -8684,9 +10584,9 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -8698,40 +10598,40 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8739,38 +10639,38 @@
       <c r="A19" s="3">
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="63">
+      <c r="A21" s="65">
         <v>13</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -8779,9 +10679,9 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="64"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="18">
+      <c r="A22" s="66"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -8790,13 +10690,13 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="63">
+      <c r="A23" s="65">
         <v>14</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -8805,9 +10705,9 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="65"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -8816,9 +10716,9 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="64"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -8830,23 +10730,23 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="63">
+      <c r="A27" s="65">
         <v>16</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>1</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -8855,9 +10755,9 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="64"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="18">
+      <c r="A28" s="66"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="19">
         <v>0</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -8866,26 +10766,26 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="63">
+      <c r="A29" s="65">
         <v>17</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>1</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="64"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="18">
+      <c r="A30" s="66"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="19">
         <v>0</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -8897,25 +10797,25 @@
       <c r="A31" s="3">
         <v>18</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="63">
+      <c r="A32" s="65">
         <v>19</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
@@ -8924,9 +10824,9 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="64"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="18">
+      <c r="A33" s="66"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -8938,53 +10838,53 @@
       <c r="A34" s="3">
         <v>20</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>21</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>22</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14">
         <v>23</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="20" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="22" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8992,13 +10892,13 @@
       <c r="A38" s="14">
         <v>24</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="12" t="s">
         <v>183</v>
       </c>
@@ -9007,14 +10907,14 @@
       <c r="A39" s="14">
         <v>25</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="22" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9022,39 +10922,39 @@
       <c r="A40" s="14">
         <v>26</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="14">
         <v>27</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="33">
+      <c r="A42" s="35">
         <v>28</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="12" t="s">
         <v>201</v>
       </c>
@@ -9063,39 +10963,39 @@
       <c r="A43" s="14">
         <v>29</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="22" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="44">
+      <c r="A44" s="46">
         <v>30</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="22" t="s">
         <v>192</v>
       </c>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="46"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="18" t="s">
+      <c r="A45" s="48"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E45" s="12"/>
@@ -9104,26 +11004,26 @@
       <c r="A46" s="14">
         <v>31</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14">
         <v>32</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="12" t="s">
         <v>196</v>
       </c>
@@ -9132,60 +11032,60 @@
       <c r="A48" s="14">
         <v>33</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="44">
+      <c r="A49" s="46">
         <v>34</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="45"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="18" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="24" t="s">
         <v>199</v>
       </c>
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="46"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="18" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="24" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="60">
+      <c r="A52" s="62">
         <v>35</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="19">
         <v>1</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -9196,9 +11096,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="60"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="18">
+      <c r="A53" s="62"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="19">
         <v>0</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -9207,16 +11107,16 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="48">
+      <c r="A54" s="50">
         <v>36</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="18">
-        <v>1</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="C54" s="19">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>209</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -9224,12 +11124,12 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="49"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="18">
-        <v>0</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -9534,1391 +11434,2997 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6107A2-0840-4B61-96C4-8AADBAAC551D}">
-  <dimension ref="A2:X88"/>
+  <dimension ref="A2:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.8984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" customWidth="1"/>
     <col min="7" max="7" width="20.3984375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" customWidth="1"/>
-    <col min="10" max="11" width="13.59765625" customWidth="1"/>
-    <col min="12" max="12" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="42.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" customWidth="1"/>
     <col min="13" max="13" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" customWidth="1"/>
     <col min="16" max="17" width="20.796875" customWidth="1"/>
     <col min="18" max="18" width="25.09765625" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="20" max="20" width="18.296875" customWidth="1"/>
     <col min="21" max="21" width="16.19921875" customWidth="1"/>
     <col min="22" max="22" width="20.69921875" customWidth="1"/>
-    <col min="23" max="23" width="16.296875" customWidth="1"/>
+    <col min="23" max="23" width="22.69921875" customWidth="1"/>
     <col min="24" max="24" width="18.69921875" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="111"/>
+    <row r="2" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="112"/>
       <c r="D2" s="120"/>
     </row>
-    <row r="3" spans="1:24" s="73" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="72"/>
-      <c r="B3" s="92" t="s">
+    <row r="3" spans="1:25" s="75" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="74"/>
+      <c r="B3" s="95" t="s">
         <v>318</v>
       </c>
       <c r="D3" s="121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="75" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="74"/>
+      <c r="B4" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B5" s="96"/>
+    </row>
+    <row r="6" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B6" s="117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B7" s="117"/>
+    </row>
+    <row r="8" spans="1:25" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B8" s="112" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="74"/>
+      <c r="B10" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+    </row>
+    <row r="11" spans="1:25" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="74"/>
+      <c r="B11" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="O11" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="R11" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="S11" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="U11" s="142" t="s">
+        <v>279</v>
+      </c>
+      <c r="V11" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="W11" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="X11" s="83" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="74"/>
+      <c r="B12" s="85">
+        <v>6328</v>
+      </c>
+      <c r="C12" s="77">
+        <v>1</v>
+      </c>
+      <c r="D12" s="79">
+        <v>44589.652083333334</v>
+      </c>
+      <c r="E12" s="81">
+        <v>44589.277083333334</v>
+      </c>
+      <c r="F12" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79">
+        <v>44637.698611111111</v>
+      </c>
+      <c r="Q12" s="79">
+        <v>44637.323611111111</v>
+      </c>
+      <c r="R12" s="143"/>
+      <c r="S12" s="147">
+        <v>0</v>
+      </c>
+      <c r="T12" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="U12" s="148">
+        <v>0</v>
+      </c>
+      <c r="V12" s="149" t="s">
+        <v>316</v>
+      </c>
+      <c r="W12" s="144"/>
+      <c r="X12" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="74"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+    </row>
+    <row r="14" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="74"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="112" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+    </row>
+    <row r="15" spans="1:25" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="74"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+    </row>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="74"/>
+      <c r="C16" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="S16" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="T16" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="V16" s="142" t="s">
+        <v>279</v>
+      </c>
+      <c r="W16" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="X16" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y16" s="83" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="85">
+        <v>6329</v>
+      </c>
+      <c r="D17" s="77">
+        <v>1</v>
+      </c>
+      <c r="E17" s="79">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F17" s="81">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="81">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="R17" s="81">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="S17" s="143"/>
+      <c r="T17" s="146">
+        <v>6328</v>
+      </c>
+      <c r="U17" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="V17" s="148">
+        <v>59</v>
+      </c>
+      <c r="W17" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="144"/>
+      <c r="Y18" s="78"/>
+    </row>
+    <row r="19" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="85">
+        <v>6338</v>
+      </c>
+      <c r="D19" s="77">
+        <v>1</v>
+      </c>
+      <c r="E19" s="79">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F19" s="81">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="81">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="R19" s="81">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="S19" s="143"/>
+      <c r="T19" s="146">
+        <v>6328</v>
+      </c>
+      <c r="U19" s="145" t="s">
+        <v>360</v>
+      </c>
+      <c r="V19" s="148">
+        <v>68</v>
+      </c>
+      <c r="W19" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="X19" s="144"/>
+      <c r="Y19" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="146"/>
+      <c r="X20" s="144"/>
+      <c r="Y20" s="78"/>
+    </row>
+    <row r="21" spans="1:25" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="85">
+        <v>6436</v>
+      </c>
+      <c r="D21" s="77">
+        <v>1</v>
+      </c>
+      <c r="E21" s="79">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F21" s="81">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" s="137" t="s">
+        <v>366</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="L21" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="81">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="R21" s="81">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="S21" s="143"/>
+      <c r="T21" s="147">
+        <v>6328</v>
+      </c>
+      <c r="U21" s="145" t="s">
+        <v>368</v>
+      </c>
+      <c r="V21" s="148">
+        <v>8</v>
+      </c>
+      <c r="W21" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="X21" s="144"/>
+      <c r="Y21" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+    </row>
+    <row r="23" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+    </row>
+    <row r="24" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="G24" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="L24" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="95" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="P25" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="R25" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="S25" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="T25" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="U25" s="72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="3">
+        <v>43158</v>
+      </c>
+      <c r="C26" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="12">
+        <v>43347</v>
+      </c>
+      <c r="H26" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="L26" s="128">
+        <v>4</v>
+      </c>
+      <c r="M26" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="127">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>98</v>
+      </c>
+      <c r="R26" s="132" t="s">
+        <v>345</v>
+      </c>
+      <c r="S26" s="130" t="s">
+        <v>347</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="3">
+        <v>43159</v>
+      </c>
+      <c r="C27" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>43348</v>
+      </c>
+      <c r="H27" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>14</v>
+      </c>
+      <c r="M27" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="127">
+        <v>101</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>101</v>
+      </c>
+      <c r="R27" s="132" t="s">
+        <v>363</v>
+      </c>
+      <c r="S27" s="130" t="s">
+        <v>347</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B28" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C28" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>43349</v>
+      </c>
+      <c r="H28" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="3">
+        <v>92</v>
+      </c>
+      <c r="M28" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="3">
+        <v>43161</v>
+      </c>
+      <c r="C29" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="12">
+        <v>43350</v>
+      </c>
+      <c r="H29" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="3">
+        <v>93</v>
+      </c>
+      <c r="M29" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B30" s="3">
+        <v>43162</v>
+      </c>
+      <c r="C30" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="12">
+        <v>43351</v>
+      </c>
+      <c r="H30" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="3">
+        <v>95</v>
+      </c>
+      <c r="M30" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q30" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="R30" s="131" t="s">
+        <v>352</v>
+      </c>
+      <c r="S30" s="72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B31" s="3">
+        <v>43163</v>
+      </c>
+      <c r="C31" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" s="12">
+        <v>43352</v>
+      </c>
+      <c r="H31" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" s="3">
+        <v>96</v>
+      </c>
+      <c r="M31" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="127">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="R31" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B32" s="3">
+        <v>43164</v>
+      </c>
+      <c r="C32" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="12">
+        <v>43353</v>
+      </c>
+      <c r="H32" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" s="3">
+        <v>97</v>
+      </c>
+      <c r="M32" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="P32" s="127">
+        <v>101</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="R32" s="132" t="s">
+        <v>362</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B33" s="3">
+        <v>43165</v>
+      </c>
+      <c r="C33" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="12">
+        <v>43354</v>
+      </c>
+      <c r="H33" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" s="136">
+        <v>98</v>
+      </c>
+      <c r="M33" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" s="3">
+        <v>43166</v>
+      </c>
+      <c r="C34" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="12">
+        <v>43355</v>
+      </c>
+      <c r="H34" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" s="3">
+        <v>99</v>
+      </c>
+      <c r="M34" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B35" s="3">
+        <v>43167</v>
+      </c>
+      <c r="C35" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="12">
+        <v>43356</v>
+      </c>
+      <c r="H35" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" s="3">
+        <v>43168</v>
+      </c>
+      <c r="C36" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>43357</v>
+      </c>
+      <c r="H36" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="136">
+        <v>101</v>
+      </c>
+      <c r="M36" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B37" s="3">
+        <v>43169</v>
+      </c>
+      <c r="C37" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>43358</v>
+      </c>
+      <c r="H37" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L37" s="3">
+        <v>102</v>
+      </c>
+      <c r="M37" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B38" s="3">
+        <v>43170</v>
+      </c>
+      <c r="C38" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="3">
+        <v>500</v>
+      </c>
+      <c r="G38" s="12">
+        <v>43359</v>
+      </c>
+      <c r="H38" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="3">
+        <v>103</v>
+      </c>
+      <c r="M38" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B39" s="3">
+        <v>43171</v>
+      </c>
+      <c r="C39" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="12">
+        <v>43360</v>
+      </c>
+      <c r="H39" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>104</v>
+      </c>
+      <c r="M39" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B40" s="3">
+        <v>43172</v>
+      </c>
+      <c r="C40" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="12">
+        <v>43361</v>
+      </c>
+      <c r="H40" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>105</v>
+      </c>
+      <c r="M40" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B41" s="3">
+        <v>43173</v>
+      </c>
+      <c r="C41" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>43362</v>
+      </c>
+      <c r="H41" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I41" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" s="3">
+        <v>106</v>
+      </c>
+      <c r="M41" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="3">
+        <v>43174</v>
+      </c>
+      <c r="C42" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" s="12">
+        <v>43363</v>
+      </c>
+      <c r="H42" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I42" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" s="3">
+        <v>107</v>
+      </c>
+      <c r="M42" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B43" s="3">
+        <v>43175</v>
+      </c>
+      <c r="C43" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="12">
+        <v>43364</v>
+      </c>
+      <c r="H43" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I43" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L43" s="3">
+        <v>108</v>
+      </c>
+      <c r="M43" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B44" s="111">
+        <v>45228</v>
+      </c>
+      <c r="C44" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D44" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="111">
+        <v>4297</v>
+      </c>
+      <c r="G44" s="12">
+        <v>43365</v>
+      </c>
+      <c r="H44" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I44" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" s="3">
+        <v>109</v>
+      </c>
+      <c r="M44" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B45" s="111">
+        <v>45229</v>
+      </c>
+      <c r="C45" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D45" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" s="12">
+        <v>45574</v>
+      </c>
+      <c r="H45" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I45" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>110</v>
+      </c>
+      <c r="M45" s="19">
+        <v>6328</v>
+      </c>
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B46" s="111">
+        <v>45230</v>
+      </c>
+      <c r="C46" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="12">
+        <v>45575</v>
+      </c>
+      <c r="H46" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I46" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B47" s="111">
+        <v>45231</v>
+      </c>
+      <c r="C47" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D47" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="12">
+        <v>45576</v>
+      </c>
+      <c r="H47" s="19">
+        <v>6338</v>
+      </c>
+      <c r="I47" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L47" s="102" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B48" s="111">
+        <v>45233</v>
+      </c>
+      <c r="C48" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" s="111" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="L48" s="123" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="73" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="72"/>
-      <c r="B4" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="122" t="s">
+      <c r="M48" s="73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="B49" s="111">
+        <v>45234</v>
+      </c>
+      <c r="C49" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D49" s="108" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="L49" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B5" s="93"/>
-    </row>
-    <row r="6" spans="1:24" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B6" s="116" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B7" s="116"/>
-    </row>
-    <row r="8" spans="1:24" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B8" s="111" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="72"/>
-      <c r="B10" s="92" t="s">
+      <c r="M49" s="73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B50" s="111">
+        <v>45235</v>
+      </c>
+      <c r="C50" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D50" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L50" t="s">
+        <v>332</v>
+      </c>
+      <c r="M50" s="73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B51" s="111">
+        <v>45236</v>
+      </c>
+      <c r="C51" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D51" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" s="12">
+        <v>45209</v>
+      </c>
+      <c r="H51" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B52" s="111">
+        <v>45237</v>
+      </c>
+      <c r="C52" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D52" s="108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" s="12">
+        <v>45210</v>
+      </c>
+      <c r="H52" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B53" s="111">
+        <v>45238</v>
+      </c>
+      <c r="C53" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D53" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" s="12">
+        <v>45211</v>
+      </c>
+      <c r="H53" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="3">
+        <v>45257</v>
+      </c>
+      <c r="C54" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="12">
+        <v>45212</v>
+      </c>
+      <c r="H54" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="3">
+        <v>45258</v>
+      </c>
+      <c r="C55" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E55" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="12">
+        <v>45213</v>
+      </c>
+      <c r="H55" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="3">
+        <v>52440</v>
+      </c>
+      <c r="C56" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" s="12">
+        <v>45214</v>
+      </c>
+      <c r="H56" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="3">
+        <v>55362</v>
+      </c>
+      <c r="C57" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" s="12">
+        <v>45215</v>
+      </c>
+      <c r="H57" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="3">
+        <v>57616</v>
+      </c>
+      <c r="C58" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58" s="3">
+        <v>143</v>
+      </c>
+      <c r="G58" s="12">
+        <v>45216</v>
+      </c>
+      <c r="H58" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3">
+        <v>60102</v>
+      </c>
+      <c r="C59" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D59" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="118">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="12">
+        <v>45217</v>
+      </c>
+      <c r="H59" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="3">
+        <v>60103</v>
+      </c>
+      <c r="C60" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D60" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="118">
+        <v>15000</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="G60" s="12">
+        <v>45218</v>
+      </c>
+      <c r="H60" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="3">
+        <v>60170</v>
+      </c>
+      <c r="C61" s="19">
+        <v>6328</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" s="119" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="12">
+        <v>45219</v>
+      </c>
+      <c r="H61" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B62" s="114"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="116"/>
+      <c r="G62" s="12">
+        <v>45220</v>
+      </c>
+      <c r="H62" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="116"/>
+      <c r="G63" s="12">
+        <v>45221</v>
+      </c>
+      <c r="H63" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="116"/>
+      <c r="G64" s="12">
+        <v>45222</v>
+      </c>
+      <c r="H64" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="116"/>
+      <c r="G65" s="12">
+        <v>45223</v>
+      </c>
+      <c r="H65" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B66" s="114"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="116"/>
+      <c r="G66" s="12">
+        <v>45224</v>
+      </c>
+      <c r="H66" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I66" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B67" s="114"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="116"/>
+      <c r="G67" s="12">
+        <v>45225</v>
+      </c>
+      <c r="H67" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I67" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B68" s="114"/>
+      <c r="C68" s="115"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="116"/>
+      <c r="G68" s="12">
+        <v>45226</v>
+      </c>
+      <c r="H68" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I68" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="116"/>
+      <c r="G69" s="12">
+        <v>45227</v>
+      </c>
+      <c r="H69" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I69" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="116"/>
+      <c r="G70" s="3">
+        <v>45334</v>
+      </c>
+      <c r="H70" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I70" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="J70" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B71" s="114"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="116"/>
+      <c r="G71" s="3">
+        <v>45335</v>
+      </c>
+      <c r="H71" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I71" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B72" s="114"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="116"/>
+      <c r="G72" s="3">
+        <v>45336</v>
+      </c>
+      <c r="H72" s="19">
+        <v>6436</v>
+      </c>
+      <c r="I72" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="J72" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B73" s="114"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="116"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B74" s="114"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="116"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B75" s="114"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="116"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B76" s="114"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="116"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B77" s="114"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="116"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B78" s="114"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="116"/>
+    </row>
+    <row r="80" spans="2:10" ht="22.2" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="1:24" ht="22.8" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="74"/>
+      <c r="B82" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-    </row>
-    <row r="11" spans="1:24" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="72"/>
-      <c r="B11" s="103" t="s">
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="75"/>
+      <c r="N82" s="75"/>
+      <c r="O82" s="75"/>
+      <c r="P82" s="75"/>
+      <c r="Q82" s="75"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="75"/>
+      <c r="T82" s="75"/>
+      <c r="U82" s="75"/>
+      <c r="V82" s="75"/>
+      <c r="W82" s="75"/>
+      <c r="X82" s="75"/>
+    </row>
+    <row r="83" spans="1:24" s="2" customFormat="1" ht="31.8" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="74"/>
+      <c r="B83" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C83" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D83" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E83" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F83" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G83" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H83" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I83" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="J83" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K83" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L83" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M83" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="N83" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="O11" s="81" t="s">
+      <c r="O83" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P83" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="Q11" s="81" t="s">
+      <c r="Q83" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R83" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="S11" s="81" t="s">
+      <c r="S83" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="T11" s="81" t="s">
+      <c r="T83" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="U11" s="81" t="s">
+      <c r="U83" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="V11" s="81" t="s">
+      <c r="V83" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="W11" s="81" t="s">
+      <c r="W83" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="X11" s="81" t="s">
+      <c r="X83" s="83" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="96">
+    <row r="84" spans="1:24" ht="31.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="74"/>
+      <c r="B84" s="99">
+        <v>6329</v>
+      </c>
+      <c r="C84" s="98">
+        <v>1</v>
+      </c>
+      <c r="D84" s="79">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="E84" s="81">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="F84" s="78"/>
+      <c r="G84" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="H84" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="J84" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="K84" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="81">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="Q84" s="81">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="R84" s="78"/>
+      <c r="S84" s="86">
         <v>6328</v>
       </c>
-      <c r="C12" s="95">
-        <v>1</v>
-      </c>
-      <c r="D12" s="77">
-        <v>44589.652083333334</v>
-      </c>
-      <c r="E12" s="79">
-        <v>44589.277083333334</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="J12" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77">
-        <v>44637.698611111111</v>
-      </c>
-      <c r="Q12" s="77">
-        <v>44637.323611111111</v>
-      </c>
-      <c r="R12" s="76"/>
-      <c r="S12" s="83">
-        <v>0</v>
-      </c>
-      <c r="T12" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="U12" s="75">
-        <v>0</v>
-      </c>
-      <c r="V12" s="107" t="s">
-        <v>316</v>
-      </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76">
+      <c r="T84" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="U84" s="77">
+        <v>59</v>
+      </c>
+      <c r="V84" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="74"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="90"/>
+      <c r="Q85" s="90"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="88"/>
+      <c r="V85" s="94"/>
+      <c r="W85" s="91"/>
+      <c r="X85" s="91"/>
+    </row>
+    <row r="86" spans="1:24" ht="21.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B86" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
+      <c r="G86" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="K86" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="O86" s="70"/>
+      <c r="P86" s="70"/>
+    </row>
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H87" s="124" t="s">
+        <v>338</v>
+      </c>
+      <c r="I87" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="K87" s="105" t="s">
+        <v>339</v>
+      </c>
+      <c r="L87" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="M87" s="131" t="s">
+        <v>344</v>
+      </c>
+      <c r="N87" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="O87" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="P87" s="72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
+        <v>43176</v>
+      </c>
+      <c r="C88" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D88" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="G88" s="128">
+        <v>4</v>
+      </c>
+      <c r="H88" s="125">
+        <v>6328</v>
+      </c>
+      <c r="I88" s="69">
+        <v>0</v>
+      </c>
+      <c r="K88" s="127">
+        <v>98</v>
+      </c>
+      <c r="L88" s="16">
+        <v>98</v>
+      </c>
+      <c r="M88" s="132" t="s">
+        <v>345</v>
+      </c>
+      <c r="N88" s="130" t="s">
+        <v>347</v>
+      </c>
+      <c r="O88" s="69">
+        <v>0</v>
+      </c>
+      <c r="P88" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="72"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-    </row>
-    <row r="14" spans="1:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B15" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
-        <v>43158</v>
-      </c>
-      <c r="C16" s="100">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
+        <v>43177</v>
+      </c>
+      <c r="C89" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D89" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="126">
+        <v>14</v>
+      </c>
+      <c r="H89" s="103">
         <v>6328</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
-        <v>43159</v>
-      </c>
-      <c r="C17" s="100">
+      <c r="I89" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="15">
+        <v>43178</v>
+      </c>
+      <c r="C90" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D90" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="15">
+        <v>92</v>
+      </c>
+      <c r="H90" s="103">
         <v>6328</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
-        <v>43160</v>
-      </c>
-      <c r="C18" s="100">
+      <c r="I90" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="21.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B91" s="15">
+        <v>43179</v>
+      </c>
+      <c r="C91" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="15">
+        <v>93</v>
+      </c>
+      <c r="H91" s="103">
         <v>6328</v>
       </c>
-      <c r="D18" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
-        <v>43161</v>
-      </c>
-      <c r="C19" s="100">
+      <c r="I91" s="69">
+        <v>0</v>
+      </c>
+      <c r="K91" s="95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="15">
+        <v>43180</v>
+      </c>
+      <c r="C92" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D92" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="15">
+        <v>95</v>
+      </c>
+      <c r="H92" s="103">
         <v>6328</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
-        <v>43162</v>
-      </c>
-      <c r="C20" s="100">
+      <c r="I92" s="69">
+        <v>0</v>
+      </c>
+      <c r="K92" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="L92" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="M92" s="131" t="s">
+        <v>352</v>
+      </c>
+      <c r="N92" s="72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="15">
+        <v>43181</v>
+      </c>
+      <c r="C93" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" s="15">
+        <v>96</v>
+      </c>
+      <c r="H93" s="103">
         <v>6328</v>
       </c>
-      <c r="D20" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
-        <v>43163</v>
-      </c>
-      <c r="C21" s="100">
+      <c r="I93" s="69">
+        <v>0</v>
+      </c>
+      <c r="K93" s="127">
+        <v>98</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M93" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="N93" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="15">
+        <v>43182</v>
+      </c>
+      <c r="C94" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D94" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94" s="129">
+        <v>97</v>
+      </c>
+      <c r="H94" s="103">
         <v>6328</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
-        <v>43164</v>
-      </c>
-      <c r="C22" s="100">
+      <c r="I94" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B95" s="15">
+        <v>43183</v>
+      </c>
+      <c r="C95" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D95" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" s="133">
+        <v>98</v>
+      </c>
+      <c r="H95" s="125">
         <v>6328</v>
       </c>
-      <c r="D22" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
-        <v>43165</v>
-      </c>
-      <c r="C23" s="100">
+      <c r="I95" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="15">
+        <v>43184</v>
+      </c>
+      <c r="C96" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G96" s="126">
+        <v>99</v>
+      </c>
+      <c r="H96" s="103">
         <v>6328</v>
       </c>
-      <c r="D23" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
-        <v>43166</v>
-      </c>
-      <c r="C24" s="100">
+      <c r="I96" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="15">
+        <v>43185</v>
+      </c>
+      <c r="C97" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D97" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G97" s="15">
+        <v>100</v>
+      </c>
+      <c r="H97" s="103">
         <v>6328</v>
       </c>
-      <c r="D24" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
-        <v>43167</v>
-      </c>
-      <c r="C25" s="100">
+      <c r="I97" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="15">
+        <v>43186</v>
+      </c>
+      <c r="C98" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D98" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G98" s="15">
+        <v>101</v>
+      </c>
+      <c r="H98" s="103">
         <v>6328</v>
       </c>
-      <c r="D25" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
-        <v>43168</v>
-      </c>
-      <c r="C26" s="100">
+      <c r="I98" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="15">
+        <v>43187</v>
+      </c>
+      <c r="C99" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D99" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="15">
+        <v>102</v>
+      </c>
+      <c r="H99" s="103">
         <v>6328</v>
       </c>
-      <c r="D26" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
-        <v>43169</v>
-      </c>
-      <c r="C27" s="100">
+      <c r="I99" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="15">
+        <v>43188</v>
+      </c>
+      <c r="C100" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D100" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G100" s="15">
+        <v>103</v>
+      </c>
+      <c r="H100" s="103">
         <v>6328</v>
       </c>
-      <c r="D27" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
-        <v>43170</v>
-      </c>
-      <c r="C28" s="100">
+      <c r="I100" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B101" s="15">
+        <v>43189</v>
+      </c>
+      <c r="C101" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D101" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="15">
+        <v>104</v>
+      </c>
+      <c r="H101" s="103">
         <v>6328</v>
       </c>
-      <c r="D28" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
-        <v>43171</v>
-      </c>
-      <c r="C29" s="100">
+      <c r="I101" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="15">
+        <v>43190</v>
+      </c>
+      <c r="C102" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D102" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>105</v>
+      </c>
+      <c r="H102" s="103">
         <v>6328</v>
       </c>
-      <c r="D29" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
-        <v>43172</v>
-      </c>
-      <c r="C30" s="100">
+      <c r="I102" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="15">
+        <v>43191</v>
+      </c>
+      <c r="C103" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D103" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G103" s="15">
+        <v>106</v>
+      </c>
+      <c r="H103" s="103">
         <v>6328</v>
       </c>
-      <c r="D30" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
-        <v>43173</v>
-      </c>
-      <c r="C31" s="100">
+      <c r="I103" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B104" s="15">
+        <v>43192</v>
+      </c>
+      <c r="C104" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D104" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G104" s="15">
+        <v>107</v>
+      </c>
+      <c r="H104" s="103">
         <v>6328</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
-        <v>43174</v>
-      </c>
-      <c r="C32" s="100">
+      <c r="I104" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B105" s="15">
+        <v>43193</v>
+      </c>
+      <c r="C105" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D105" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G105" s="15">
+        <v>108</v>
+      </c>
+      <c r="H105" s="103">
         <v>6328</v>
       </c>
-      <c r="D32" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="E32" s="119" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
-        <v>43175</v>
-      </c>
-      <c r="C33" s="100">
+      <c r="I105" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B106" s="15">
+        <v>43194</v>
+      </c>
+      <c r="C106" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D106" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G106" s="15">
+        <v>109</v>
+      </c>
+      <c r="H106" s="103">
         <v>6328</v>
       </c>
-      <c r="D33" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="110">
-        <v>45228</v>
-      </c>
-      <c r="C34" s="100">
+      <c r="I106" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B107" s="15">
+        <v>45649</v>
+      </c>
+      <c r="C107" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D107" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G107" s="15">
+        <v>110</v>
+      </c>
+      <c r="H107" s="103">
         <v>6328</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="I107" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="15">
+        <v>45650</v>
+      </c>
+      <c r="C108" s="103">
+        <v>6329</v>
+      </c>
+      <c r="D108" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="E34" s="109">
-        <v>4297</v>
-      </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="110">
-        <v>45229</v>
-      </c>
-      <c r="C35" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D35" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="E35" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B36" s="110">
-        <v>45230</v>
-      </c>
-      <c r="C36" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D36" s="108" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="109" t="s">
-        <v>295</v>
-      </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="110">
-        <v>45231</v>
-      </c>
-      <c r="C37" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D37" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B38" s="110">
-        <v>45233</v>
-      </c>
-      <c r="C38" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D38" s="108" t="s">
-        <v>297</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>298</v>
-      </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B39" s="110">
-        <v>45234</v>
-      </c>
-      <c r="C39" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D39" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="E39" s="109" t="s">
-        <v>300</v>
-      </c>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B40" s="110">
-        <v>45235</v>
-      </c>
-      <c r="C40" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D40" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B41" s="110">
-        <v>45236</v>
-      </c>
-      <c r="C41" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D41" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B42" s="110">
-        <v>45237</v>
-      </c>
-      <c r="C42" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D42" s="108" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B43" s="110">
-        <v>45238</v>
-      </c>
-      <c r="C43" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D43" s="108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-    </row>
-    <row r="44" spans="2:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
-        <v>45257</v>
-      </c>
-      <c r="C44" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" s="119" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
-        <v>45258</v>
-      </c>
-      <c r="C45" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="E45" s="119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
-        <v>52440</v>
-      </c>
-      <c r="C46" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
-        <v>55362</v>
-      </c>
-      <c r="C47" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
-        <v>57616</v>
-      </c>
-      <c r="C48" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="E48" s="3">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
-        <v>60102</v>
-      </c>
-      <c r="C49" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D49" s="117" t="s">
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B109" s="15">
+        <v>45651</v>
+      </c>
+      <c r="C109" s="104">
+        <v>6329</v>
+      </c>
+      <c r="D109" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="E49" s="118">
-        <v>10000</v>
-      </c>
-      <c r="F49" s="71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
-        <v>60103</v>
-      </c>
-      <c r="C50" s="100">
-        <v>6328</v>
-      </c>
-      <c r="D50" s="117" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="118">
+      <c r="E109" s="3">
         <v>15000</v>
       </c>
-      <c r="F50" s="71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="15">
-        <v>60170</v>
-      </c>
-      <c r="C51" s="101">
-        <v>6328</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="E51" s="119" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="115"/>
-    </row>
-    <row r="54" spans="1:24" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B54" s="112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="72"/>
-      <c r="B56" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-    </row>
-    <row r="57" spans="1:24" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="72"/>
-      <c r="B57" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="G57" s="81" t="s">
-        <v>263</v>
-      </c>
-      <c r="H57" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="I57" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="J57" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="K57" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="L57" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="M57" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="N57" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="O57" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="P57" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q57" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="R57" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="S57" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="T57" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="U57" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="V57" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="W57" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="X57" s="81" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="72"/>
-      <c r="B58" s="96">
-        <v>6329</v>
-      </c>
-      <c r="C58" s="95">
-        <v>1</v>
-      </c>
-      <c r="D58" s="77">
-        <v>44589.652372685188</v>
-      </c>
-      <c r="E58" s="79">
-        <v>44589.277372685188</v>
-      </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="H58" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="J58" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="79">
-        <v>44637.608877314815</v>
-      </c>
-      <c r="Q58" s="79">
-        <v>44637.233877314815</v>
-      </c>
-      <c r="R58" s="76"/>
-      <c r="S58" s="83">
-        <v>6328</v>
-      </c>
-      <c r="T58" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="U58" s="75">
-        <v>59</v>
-      </c>
-      <c r="V58" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="W58" s="76"/>
-      <c r="X58" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="72"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="85"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-    </row>
-    <row r="60" spans="1:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B61" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
-        <v>43176</v>
-      </c>
-      <c r="C62" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
-        <v>43177</v>
-      </c>
-      <c r="C63" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
-        <v>43178</v>
-      </c>
-      <c r="C64" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
-        <v>43179</v>
-      </c>
-      <c r="C65" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
-        <v>43180</v>
-      </c>
-      <c r="C66" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
-        <v>43181</v>
-      </c>
-      <c r="C67" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
-        <v>43182</v>
-      </c>
-      <c r="C68" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
-        <v>43183</v>
-      </c>
-      <c r="C69" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
-        <v>43184</v>
-      </c>
-      <c r="C70" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
-        <v>43185</v>
-      </c>
-      <c r="C71" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D71" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
-        <v>43186</v>
-      </c>
-      <c r="C72" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D72" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
-        <v>43187</v>
-      </c>
-      <c r="C73" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
-        <v>43188</v>
-      </c>
-      <c r="C74" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
-        <v>43189</v>
-      </c>
-      <c r="C75" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D75" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
-        <v>43190</v>
-      </c>
-      <c r="C76" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D76" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
-        <v>43191</v>
-      </c>
-      <c r="C77" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D77" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
-        <v>43192</v>
-      </c>
-      <c r="C78" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D78" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
-        <v>43193</v>
-      </c>
-      <c r="C79" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D79" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
-        <v>43194</v>
-      </c>
-      <c r="C80" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D80" s="97" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
-        <v>45649</v>
-      </c>
-      <c r="C81" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D81" s="98" t="s">
-        <v>251</v>
-      </c>
-      <c r="E81" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
-        <v>45650</v>
-      </c>
-      <c r="C82" s="100">
-        <v>6329</v>
-      </c>
-      <c r="D82" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="15">
-        <v>45651</v>
-      </c>
-      <c r="C83" s="101">
-        <v>6329</v>
-      </c>
-      <c r="D83" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B85" s="99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B86" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
-        <v>334</v>
-      </c>
-      <c r="C88" s="71" t="s">
-        <v>336</v>
-      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B111" s="102"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B112" s="123"/>
+      <c r="C112" s="73"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113"/>
+      <c r="C113" s="73"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114"/>
+      <c r="C114" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="U19" r:id="rId1" xr:uid="{8BB72743-9589-46C1-8A95-F2129F0052A3}"/>
+    <hyperlink ref="U21" r:id="rId2" xr:uid="{9D2C3599-3B71-4E9D-B024-E5E0ACFCAAB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/アップロードサンプルデーター_220302.xlsx
+++ b/アップロードサンプルデーター_220302.xlsx
@@ -8,22 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wud96\LeotardHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B03ED8-2ADA-4FD5-9EE2-E9C0C4BBD7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9C5240-6A79-4079-A372-9E5C8F4AB5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="24" windowWidth="21900" windowHeight="12216" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データー" sheetId="1" r:id="rId1"/>
     <sheet name="カラム別説明" sheetId="2" r:id="rId2"/>
     <sheet name="親子要素関係" sheetId="3" r:id="rId3"/>
     <sheet name="wp_table関係" sheetId="4" r:id="rId4"/>
+    <sheet name="生地関係" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="406">
   <si>
     <t>ID</t>
   </si>
@@ -2187,66 +2200,6 @@
     <t>6.1.1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイズ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: S, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>生地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: teal, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>生地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>2: bohemian</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>%e3%83%91%e3%82%bf%e3%83%b3%ef%bc%95-10</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2334,66 +2287,6 @@
     <rPh sb="9" eb="10">
       <t>オヤ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイズ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: L, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>生地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: g-5, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>生地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>2: g-5</t>
-    </r>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -2460,12 +2353,364 @@
     <t>옵션가격 중 최대가격</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>attribute_pa_fabric1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>pa_fabric1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: L, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2: g-5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>1: g-5</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: S, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2: bohemian, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>1: teal</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: S, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2: watercolor, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1: watercolor</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>product_count_product_cat</t>
+  </si>
+  <si>
+    <t>_astra_sites_imported_term</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>product_count_product_tag</t>
+  </si>
+  <si>
+    <t>order_pa_fabric1</t>
+  </si>
+  <si>
+    <t>order_pa_size</t>
+  </si>
+  <si>
+    <t>order_pa_fabric2</t>
+  </si>
+  <si>
+    <t>display_type</t>
+  </si>
+  <si>
+    <t>thumbnail_id</t>
+  </si>
+  <si>
+    <t>order_pa_upper-fabric</t>
+  </si>
+  <si>
+    <t>shopengine_image</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>http://192.168.1.34/wp-content/uploads/2022/01/k1.jpg</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>image/jpeg</t>
+  </si>
+  <si>
+    <t>_wp_attachment_image_alt</t>
+  </si>
+  <si>
+    <t>_wp_attached_file</t>
+  </si>
+  <si>
+    <t>2022/01/k1.jpg</t>
+  </si>
+  <si>
+    <t>_wp_attachment_metadata</t>
+  </si>
+  <si>
+    <t>a:5:{s:5:"width";i:1130;s:6:"height";i:1130;s:4:"file";s:14:"2022/01/k1.jpg";s:5:"sizes";a:10:{s:21:"woocommerce_thumbnail";a:5:{s:4:"file";s:14:"k1-600x600.jpg";s:5:"width";i:600;s:6:"height";i:600;s:9:"mime-type";s:10:"image/jpeg";s:9:"uncropped";b:0;}s:29:"woocommerce_gallery_thumbnail";a:4:{s:4:"file";s:14:"k1-100x100.jpg";s:5:"width";i:100;s:6:"height";i:100;s:9:"mime-type";s:10:"image/jpeg";}s:18:"woocommerce_single";a:4:{s:4:"file";s:14:"k1-600x600.jpg";s:5:"width";i:600;s:6:"height";i:600;s:9:"mime-type";s:10:"image/jpeg";}s:6:"medium";a:4:{s:4:"file";s:14:"k1-300x300.jpg";s:5:"width";i:300;s:6:"height";i:300;s:9:"mime-type";s:10:"image/jpeg";}s:5:"large";a:4:{s:4:"file";s:16:"k1-1024x1024.jpg";s:5:"width";i:1024;s:6:"height";i:1024;s:9:"mime-type";s:10:"image/jpeg";}s:9:"thumbnail";a:4:{s:4:"file";s:14:"k1-150x150.jpg";s:5:"width";i:150;s:6:"height";i:150;s:9:"mime-type";s:10:"image/jpeg";}s:12:"medium_large";a:4:{s:4:"file";s:14:"k1-768x768.jpg";s:5:"width";i:768;s:6:"height";i:768;s:9:"mime-type";s:10:"image/jpeg";}s:12:"shop_catalog";a:5:{s:4:"file";s:14:"k1-600x600.jpg";s:5:"width";i:600;s:6:"height";i:600;s:9:"mime-type";s:10:"image/jpeg";s:9:"uncropped";b:0;}s:11:"shop_single";a:4:{s:4:"file";s:14:"k1-600x600.jpg";s:5:"width";i:600;s:6:"height";i:600;s:9:"mime-type";s:10:"image/jpeg";}s:14:"shop_thumbnail";a:4:{s:4:"file";s:14:"k1-100x100.jpg";s:5:"width";i:100;s:6:"height";i:100;s:9:"mime-type";s:10:"image/jpeg";}}s:10:"image_meta";a:12:{s:8:"aperture";s:1:"0";s:6:"credit";s:0:"";s:6:"camera";s:0:"";s:7:"caption";s:0:"";s:17:"created_timestamp";s:1:"0";s:9:"copyright";s:0:"";s:12:"focal_length";s:1:"0";s:3:"iso";s:1:"0";s:13:"shutter_speed";s:1:"0";s:5:"title";s:0:"";s:11:"orientation";s:1:"0";s:8:"keywords";a:0:{}}}</t>
+  </si>
+  <si>
+    <r>
+      <t>wp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>termmeta table</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>watercolor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>pa_fabric</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>watercolor 이미지파일과 상품옵션의 관계</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>shopengine 플러그인을 이용해 이미지파일을 옵션에 등록하는 방법으로 연결시킴</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT guid,post_name,post_title FROM `wp_posts` as p 
+INNER JOIN wp_terms as t ON p.post_title = t.slug
+INNER JOIN wp_termmeta AS tm ON p.ID = tm.meta_value
+WHERE p.post_type = 'attachment' 
+AND tm.meta_key = 'shopengine_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>image'
+GROUP BY p.guid</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>* slug 혹은 name 둘 다 가능</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2854,6 +3099,81 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -3704,7 +4024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3822,36 +4142,333 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3861,302 +4478,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6318,7 +6701,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>650685</xdr:colOff>
+      <xdr:colOff>650684</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
@@ -6591,6 +6974,903 @@
         <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>249380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64BFA9E-1D2A-448A-9E96-6FE11C4E3987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32378073" y="17692254"/>
+          <a:ext cx="1427018" cy="2992581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>793521</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5AEF32-0077-4E82-897F-4610E33077F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="31" idx="1"/>
+          <a:endCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="21215121" y="9708079"/>
+          <a:ext cx="11162953" cy="9480467"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF08976-0A61-4D74-B8D3-B03FDC65DC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36035673" y="17692255"/>
+          <a:ext cx="914400" cy="2992581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>464129</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="コネクタ: カギ線 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A27E3CC-0499-4867-908D-0C97CDA516C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="25039647" y="6257038"/>
+          <a:ext cx="4928795" cy="18279688"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>286870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>394446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1DCEC3-877C-45D0-A1FC-2F719B3C237B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="2588110"/>
+          <a:ext cx="937260" cy="800996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176995AE-2D90-4294-8973-A8BD7B546EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330036" y="2774493"/>
+          <a:ext cx="1371600" cy="1049362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>332509</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>386825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326FBFE0-30CD-4D31-AD05-EC6487ECDB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="950157" y="1708813"/>
+          <a:ext cx="1113049" cy="1018309"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>386826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>718457</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5854DD2-5965-43BC-A04D-556CAE6B0395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5913856" y="-3251915"/>
+          <a:ext cx="1126288" cy="10929256"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1817913</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>370114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA33FAD-565F-4DD5-A2B0-47D2111BA3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223170" y="2775857"/>
+          <a:ext cx="1436915" cy="1132114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593271</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A2A7DA-628D-4C6B-B0AB-0DEA1110AA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12504963" y="-661307"/>
+          <a:ext cx="381001" cy="7255329"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88D7EAD-A077-43AD-B7ED-9DDE22AEDFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8730343" y="2775857"/>
+          <a:ext cx="674914" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A055713-AAFF-47DC-BAC4-50EEE24E8BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13890171" y="4800600"/>
+          <a:ext cx="1850572" cy="1175657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F39820A-EB7C-4375-9E8D-4AE6AEDB00ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15729857" y="3156858"/>
+          <a:ext cx="1186543" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593273</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8246E80E-1705-4AD7-8E0E-97B3573CE062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15487651" y="4552950"/>
+          <a:ext cx="1088571" cy="582386"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -10404,10 +11684,10 @@
       <c r="B1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="20" t="s">
         <v>129</v>
       </c>
@@ -10419,19 +11699,19 @@
       <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="65">
+      <c r="A3" s="124">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -10443,8 +11723,8 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="67"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="19" t="s">
         <v>109</v>
       </c>
@@ -10454,8 +11734,8 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="67"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
@@ -10465,8 +11745,8 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="67"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="19" t="s">
         <v>131</v>
       </c>
@@ -10478,8 +11758,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="66"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="19" t="s">
         <v>132</v>
       </c>
@@ -10497,10 +11777,10 @@
       <c r="B8" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10510,17 +11790,17 @@
       <c r="B9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="65">
+      <c r="A10" s="124">
         <v>5</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="122" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="19">
@@ -10532,8 +11812,8 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="66"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="19">
         <v>0</v>
       </c>
@@ -10543,10 +11823,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="65">
+      <c r="A12" s="124">
         <v>6</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="122" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="19">
@@ -10558,8 +11838,8 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="66"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="19">
         <v>0</v>
       </c>
@@ -10569,10 +11849,10 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="65">
+      <c r="A14" s="124">
         <v>7</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="122" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -10584,8 +11864,8 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="66"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="19" t="s">
         <v>90</v>
       </c>
@@ -10601,10 +11881,10 @@
       <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="136" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="137"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10614,10 +11894,10 @@
       <c r="B17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -10627,10 +11907,10 @@
       <c r="B18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="137"/>
       <c r="E18" s="22" t="s">
         <v>163</v>
       </c>
@@ -10642,10 +11922,10 @@
       <c r="B19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -10655,19 +11935,19 @@
       <c r="B20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="65">
+      <c r="A21" s="124">
         <v>13</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="122" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="19">
@@ -10679,8 +11959,8 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="66"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="19">
         <v>0</v>
       </c>
@@ -10690,10 +11970,10 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="65">
+      <c r="A23" s="124">
         <v>14</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="122" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -10705,8 +11985,8 @@
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="67"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="19" t="s">
         <v>109</v>
       </c>
@@ -10716,8 +11996,8 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="66"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="19" t="s">
         <v>110</v>
       </c>
@@ -10733,17 +12013,17 @@
       <c r="B26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="65">
+      <c r="A27" s="124">
         <v>16</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="122" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="19">
@@ -10755,8 +12035,8 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="66"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="19">
         <v>0</v>
       </c>
@@ -10766,10 +12046,10 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="65">
+      <c r="A29" s="124">
         <v>17</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="122" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="19">
@@ -10783,8 +12063,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="66"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="19">
         <v>0</v>
       </c>
@@ -10800,19 +12080,19 @@
       <c r="B31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="65">
+      <c r="A32" s="124">
         <v>19</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="122" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="19">
@@ -10824,8 +12104,8 @@
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="66"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="19">
         <v>0</v>
       </c>
@@ -10841,10 +12121,10 @@
       <c r="B34" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="140" t="s">
         <v>213</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10854,10 +12134,10 @@
       <c r="B35" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10867,10 +12147,10 @@
       <c r="B36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10880,10 +12160,10 @@
       <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="137"/>
       <c r="E37" s="22" t="s">
         <v>181</v>
       </c>
@@ -10895,10 +12175,10 @@
       <c r="B38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="12" t="s">
         <v>183</v>
       </c>
@@ -10910,10 +12190,10 @@
       <c r="B39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="57"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="22" t="s">
         <v>187</v>
       </c>
@@ -10925,10 +12205,10 @@
       <c r="B40" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -10938,10 +12218,10 @@
       <c r="B41" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -10951,10 +12231,10 @@
       <c r="B42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="53"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="12" t="s">
         <v>201</v>
       </c>
@@ -10966,19 +12246,19 @@
       <c r="B43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="53"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="22" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="46">
+      <c r="A44" s="144">
         <v>30</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="122" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -10990,8 +12270,8 @@
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="123"/>
       <c r="C45" s="19" t="s">
         <v>135</v>
       </c>
@@ -11007,10 +12287,10 @@
       <c r="B46" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="141"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -11020,10 +12300,10 @@
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="141"/>
       <c r="E47" s="12" t="s">
         <v>196</v>
       </c>
@@ -11035,30 +12315,30 @@
       <c r="B48" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="141"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="46">
+      <c r="A49" s="144">
         <v>34</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="42"/>
+      <c r="D49" s="128"/>
       <c r="E49" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="47"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="19" t="s">
         <v>109</v>
       </c>
@@ -11068,8 +12348,8 @@
       <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="48"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="19" t="s">
         <v>110</v>
       </c>
@@ -11079,10 +12359,10 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="62">
+      <c r="A52" s="151">
         <v>35</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="148" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="19">
@@ -11096,8 +12376,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="62"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="148"/>
       <c r="C53" s="19">
         <v>0</v>
       </c>
@@ -11107,10 +12387,10 @@
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="50">
+      <c r="A54" s="149">
         <v>36</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="148" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="19">
@@ -11124,8 +12404,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="51"/>
-      <c r="B55" s="49"/>
+      <c r="A55" s="150"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="19">
         <v>0</v>
       </c>
@@ -11138,6 +12418,44 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A10:A11"/>
@@ -11151,44 +12469,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11434,10 +12714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6107A2-0840-4B61-96C4-8AADBAAC551D}">
-  <dimension ref="A2:Y114"/>
+  <dimension ref="A2:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="H20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11450,7 +12730,7 @@
     <col min="6" max="6" width="19.19921875" customWidth="1"/>
     <col min="7" max="7" width="20.3984375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="42.09765625" customWidth="1"/>
+    <col min="9" max="9" width="48.796875" customWidth="1"/>
     <col min="10" max="10" width="13.59765625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" customWidth="1"/>
@@ -11461,684 +12741,685 @@
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="18.296875" customWidth="1"/>
     <col min="21" max="21" width="16.19921875" customWidth="1"/>
-    <col min="22" max="22" width="20.69921875" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
     <col min="23" max="23" width="22.69921875" customWidth="1"/>
     <col min="24" max="24" width="18.69921875" customWidth="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="25" max="25" width="29.296875" customWidth="1"/>
+    <col min="26" max="26" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="112"/>
-      <c r="D2" s="120"/>
-    </row>
-    <row r="3" spans="1:25" s="75" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="74"/>
-      <c r="B3" s="95" t="s">
+      <c r="B2" s="82"/>
+      <c r="D2" s="90"/>
+    </row>
+    <row r="3" spans="1:25" s="45" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="44"/>
+      <c r="B3" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="91" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="75" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="74"/>
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:25" s="45" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="44"/>
+      <c r="B4" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="92" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B5" s="96"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="87" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:25" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="82" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="74"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
     </row>
     <row r="11" spans="1:25" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="74"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="N11" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="Q11" s="83" t="s">
+      <c r="Q11" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="R11" s="142" t="s">
+      <c r="R11" s="112" t="s">
         <v>276</v>
       </c>
-      <c r="S11" s="150" t="s">
+      <c r="S11" s="120" t="s">
         <v>277</v>
       </c>
-      <c r="T11" s="97" t="s">
+      <c r="T11" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="U11" s="142" t="s">
+      <c r="U11" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="V11" s="150" t="s">
+      <c r="V11" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="W11" s="97" t="s">
+      <c r="W11" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="X11" s="83" t="s">
+      <c r="X11" s="53" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="74"/>
-      <c r="B12" s="85">
+      <c r="A12" s="44"/>
+      <c r="B12" s="55">
         <v>6328</v>
       </c>
-      <c r="C12" s="77">
-        <v>1</v>
-      </c>
-      <c r="D12" s="79">
+      <c r="C12" s="47">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49">
         <v>44589.652083333334</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="51">
         <v>44589.277083333334</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79">
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49">
         <v>44637.698611111111</v>
       </c>
-      <c r="Q12" s="79">
+      <c r="Q12" s="49">
         <v>44637.323611111111</v>
       </c>
-      <c r="R12" s="143"/>
-      <c r="S12" s="147">
-        <v>0</v>
-      </c>
-      <c r="T12" s="144" t="s">
+      <c r="R12" s="113"/>
+      <c r="S12" s="117">
+        <v>0</v>
+      </c>
+      <c r="T12" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="U12" s="148">
-        <v>0</v>
-      </c>
-      <c r="V12" s="149" t="s">
+      <c r="U12" s="118">
+        <v>0</v>
+      </c>
+      <c r="V12" s="119" t="s">
         <v>316</v>
       </c>
-      <c r="W12" s="144"/>
-      <c r="X12" s="78">
+      <c r="W12" s="114"/>
+      <c r="X12" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="74"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
     </row>
     <row r="14" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="74"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="112" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+    </row>
+    <row r="15" spans="1:25" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="44"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-    </row>
-    <row r="15" spans="1:25" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="74"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="89" t="s">
+      <c r="E15" s="60"/>
+      <c r="F15" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+    </row>
+    <row r="16" spans="1:25" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="44"/>
+      <c r="C16" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="S16" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="T16" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="V16" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="W16" s="120" t="s">
+        <v>280</v>
+      </c>
+      <c r="X16" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y16" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="55">
+        <v>6329</v>
+      </c>
+      <c r="D17" s="47">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F17" s="51">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="51">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="R17" s="51">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="S17" s="113"/>
+      <c r="T17" s="116">
+        <v>6328</v>
+      </c>
+      <c r="U17" s="114" t="s">
+        <v>257</v>
+      </c>
+      <c r="V17" s="118">
+        <v>59</v>
+      </c>
+      <c r="W17" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="55">
+        <v>6338</v>
+      </c>
+      <c r="D19" s="47">
+        <v>1</v>
+      </c>
+      <c r="E19" s="49">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F19" s="51">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="51">
+        <v>44637.608877314815</v>
+      </c>
+      <c r="R19" s="51">
+        <v>44637.233877314815</v>
+      </c>
+      <c r="S19" s="113"/>
+      <c r="T19" s="116">
+        <v>6328</v>
+      </c>
+      <c r="U19" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="V19" s="118">
+        <v>68</v>
+      </c>
+      <c r="W19" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="48"/>
+    </row>
+    <row r="21" spans="1:26" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="55">
+        <v>6436</v>
+      </c>
+      <c r="D21" s="47">
+        <v>1</v>
+      </c>
+      <c r="E21" s="49">
+        <v>44589.652372685188</v>
+      </c>
+      <c r="F21" s="51">
+        <v>44589.277372685188</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91" t="s">
-        <v>369</v>
-      </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-    </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="74"/>
-      <c r="C16" s="138" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="J16" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="N16" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="O16" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="P16" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q16" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="R16" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="S16" s="142" t="s">
-        <v>276</v>
-      </c>
-      <c r="T16" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="U16" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="V16" s="142" t="s">
-        <v>279</v>
-      </c>
-      <c r="W16" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="X16" s="97" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y16" s="83" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="85">
-        <v>6329</v>
-      </c>
-      <c r="D17" s="77">
-        <v>1</v>
-      </c>
-      <c r="E17" s="79">
-        <v>44589.652372685188</v>
-      </c>
-      <c r="F17" s="81">
-        <v>44589.277372685188</v>
-      </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="I17" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="K17" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="L17" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="81">
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="51">
         <v>44637.608877314815</v>
       </c>
-      <c r="R17" s="81">
+      <c r="R21" s="51">
         <v>44637.233877314815</v>
       </c>
-      <c r="S17" s="143"/>
-      <c r="T17" s="146">
+      <c r="S21" s="113"/>
+      <c r="T21" s="117">
         <v>6328</v>
       </c>
-      <c r="U17" s="144" t="s">
-        <v>257</v>
-      </c>
-      <c r="V17" s="148">
-        <v>59</v>
-      </c>
-      <c r="W17" s="146" t="s">
+      <c r="U21" s="115" t="s">
+        <v>366</v>
+      </c>
+      <c r="V21" s="118">
+        <v>8</v>
+      </c>
+      <c r="W21" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="78"/>
-    </row>
-    <row r="19" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="85">
-        <v>6338</v>
-      </c>
-      <c r="D19" s="77">
-        <v>1</v>
-      </c>
-      <c r="E19" s="79">
-        <v>44589.652372685188</v>
-      </c>
-      <c r="F19" s="81">
-        <v>44589.277372685188</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="L19" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="81">
-        <v>44637.608877314815</v>
-      </c>
-      <c r="R19" s="81">
-        <v>44637.233877314815</v>
-      </c>
-      <c r="S19" s="143"/>
-      <c r="T19" s="146">
-        <v>6328</v>
-      </c>
-      <c r="U19" s="145" t="s">
-        <v>360</v>
-      </c>
-      <c r="V19" s="148">
-        <v>68</v>
-      </c>
-      <c r="W19" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="78"/>
-    </row>
-    <row r="21" spans="1:25" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="85">
-        <v>6436</v>
-      </c>
-      <c r="D21" s="77">
-        <v>1</v>
-      </c>
-      <c r="E21" s="79">
-        <v>44589.652372685188</v>
-      </c>
-      <c r="F21" s="81">
-        <v>44589.277372685188</v>
-      </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="I21" s="137" t="s">
-        <v>366</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="K21" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="L21" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="81">
-        <v>44637.608877314815</v>
-      </c>
-      <c r="R21" s="81">
-        <v>44637.233877314815</v>
-      </c>
-      <c r="S21" s="143"/>
-      <c r="T21" s="147">
-        <v>6328</v>
-      </c>
-      <c r="U21" s="145" t="s">
-        <v>368</v>
-      </c>
-      <c r="V21" s="148">
-        <v>8</v>
-      </c>
-      <c r="W21" s="147" t="s">
-        <v>258</v>
-      </c>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X21" s="114"/>
+      <c r="Y21" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-    </row>
-    <row r="23" spans="1:25" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="44"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+    </row>
+    <row r="23" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-    </row>
-    <row r="24" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="95" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+    </row>
+    <row r="24" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="65" t="s">
         <v>284</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="G24" s="95" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="G24" s="65" t="s">
         <v>284</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="L24" s="95" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="L24" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="P24" s="95" t="s">
+      <c r="P24" s="65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>224</v>
       </c>
@@ -12172,26 +13453,38 @@
       <c r="N25" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="P25" s="105" t="s">
+      <c r="P25" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="Q25" s="72" t="s">
+      <c r="Q25" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="R25" s="131" t="s">
+      <c r="R25" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="S25" s="72" t="s">
+      <c r="S25" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="T25" s="72" t="s">
+      <c r="T25" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="U25" s="72" t="s">
+      <c r="U25" s="42" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W25" s="155" t="s">
+        <v>388</v>
+      </c>
+      <c r="X25" s="154" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y25" s="153" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z25" s="152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <v>43158</v>
       </c>
@@ -12214,7 +13507,7 @@
         <v>285</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="L26" s="128">
+      <c r="L26" s="98">
         <v>4</v>
       </c>
       <c r="M26" s="19">
@@ -12223,16 +13516,16 @@
       <c r="N26" s="12">
         <v>0</v>
       </c>
-      <c r="P26" s="127">
+      <c r="P26" s="97">
         <v>98</v>
       </c>
       <c r="Q26" s="16">
         <v>98</v>
       </c>
-      <c r="R26" s="132" t="s">
-        <v>345</v>
-      </c>
-      <c r="S26" s="130" t="s">
+      <c r="R26" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="S26" s="100" t="s">
         <v>347</v>
       </c>
       <c r="T26" s="16">
@@ -12241,8 +13534,20 @@
       <c r="U26" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W26" s="3">
+        <v>29</v>
+      </c>
+      <c r="X26" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <v>43159</v>
       </c>
@@ -12276,16 +13581,16 @@
       <c r="N27" s="12">
         <v>0</v>
       </c>
-      <c r="P27" s="127">
+      <c r="P27" s="97">
         <v>101</v>
       </c>
       <c r="Q27" s="16">
         <v>101</v>
       </c>
-      <c r="R27" s="132" t="s">
-        <v>363</v>
-      </c>
-      <c r="S27" s="130" t="s">
+      <c r="R27" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="S27" s="100" t="s">
         <v>347</v>
       </c>
       <c r="T27" s="16">
@@ -12294,8 +13599,20 @@
       <c r="U27" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W27" s="3">
+        <v>135</v>
+      </c>
+      <c r="X27" s="3">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <v>43160</v>
       </c>
@@ -12329,8 +13646,20 @@
       <c r="N28" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W28" s="3">
+        <v>141</v>
+      </c>
+      <c r="X28" s="3">
+        <v>92</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="3">
         <v>43161</v>
       </c>
@@ -12364,11 +13693,23 @@
       <c r="N29" s="12">
         <v>0</v>
       </c>
-      <c r="P29" s="95" t="s">
+      <c r="P29" s="65" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W29" s="3">
+        <v>142</v>
+      </c>
+      <c r="X29" s="3">
+        <v>92</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <v>43162</v>
       </c>
@@ -12400,20 +13741,32 @@
       <c r="N30" s="12">
         <v>0</v>
       </c>
-      <c r="P30" s="105" t="s">
+      <c r="P30" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="Q30" s="72" t="s">
+      <c r="Q30" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="R30" s="131" t="s">
+      <c r="R30" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="S30" s="72" t="s">
+      <c r="S30" s="42" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W30" s="3">
+        <v>143</v>
+      </c>
+      <c r="X30" s="3">
+        <v>93</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B31" s="3">
         <v>43163</v>
       </c>
@@ -12447,20 +13800,32 @@
       <c r="N31" s="12">
         <v>0</v>
       </c>
-      <c r="P31" s="127">
+      <c r="P31" s="97">
         <v>98</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="R31" s="132" t="s">
+      <c r="R31" s="102" t="s">
         <v>351</v>
       </c>
       <c r="S31" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="W31" s="3">
+        <v>144</v>
+      </c>
+      <c r="X31" s="3">
+        <v>95</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B32" s="3">
         <v>43164</v>
       </c>
@@ -12494,20 +13859,32 @@
       <c r="N32" s="12">
         <v>0</v>
       </c>
-      <c r="P32" s="127">
+      <c r="P32" s="97">
         <v>101</v>
       </c>
       <c r="Q32" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="R32" s="102" t="s">
         <v>361</v>
       </c>
-      <c r="R32" s="132" t="s">
-        <v>362</v>
-      </c>
       <c r="S32" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W32" s="3">
+        <v>145</v>
+      </c>
+      <c r="X32" s="3">
+        <v>96</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B33" s="3">
         <v>43165</v>
       </c>
@@ -12532,7 +13909,7 @@
       <c r="J33" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L33" s="136">
+      <c r="L33" s="106">
         <v>98</v>
       </c>
       <c r="M33" s="19">
@@ -12541,8 +13918,20 @@
       <c r="N33" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W33" s="3">
+        <v>146</v>
+      </c>
+      <c r="X33" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B34" s="3">
         <v>43166</v>
       </c>
@@ -12576,8 +13965,20 @@
       <c r="N34" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W34" s="3">
+        <v>147</v>
+      </c>
+      <c r="X34" s="3">
+        <v>98</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35" s="3">
         <v>43167</v>
       </c>
@@ -12611,8 +14012,20 @@
       <c r="N35" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W35" s="3">
+        <v>148</v>
+      </c>
+      <c r="X35" s="3">
+        <v>99</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B36" s="3">
         <v>43168</v>
       </c>
@@ -12637,7 +14050,7 @@
       <c r="J36" s="3">
         <v>-1</v>
       </c>
-      <c r="L36" s="136">
+      <c r="L36" s="106">
         <v>101</v>
       </c>
       <c r="M36" s="19">
@@ -12646,8 +14059,20 @@
       <c r="N36" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W36" s="3">
+        <v>149</v>
+      </c>
+      <c r="X36" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B37" s="3">
         <v>43169</v>
       </c>
@@ -12681,8 +14106,20 @@
       <c r="N37" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W37" s="3">
+        <v>150</v>
+      </c>
+      <c r="X37" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B38" s="3">
         <v>43170</v>
       </c>
@@ -12716,8 +14153,20 @@
       <c r="N38" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W38" s="3">
+        <v>151</v>
+      </c>
+      <c r="X38" s="3">
+        <v>102</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B39" s="3">
         <v>43171</v>
       </c>
@@ -12751,8 +14200,20 @@
       <c r="N39" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W39" s="3">
+        <v>152</v>
+      </c>
+      <c r="X39" s="3">
+        <v>103</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B40" s="3">
         <v>43172</v>
       </c>
@@ -12786,8 +14247,20 @@
       <c r="N40" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W40" s="3">
+        <v>153</v>
+      </c>
+      <c r="X40" s="3">
+        <v>104</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B41" s="3">
         <v>43173</v>
       </c>
@@ -12806,7 +14279,7 @@
       <c r="H41" s="19">
         <v>6338</v>
       </c>
-      <c r="I41" s="134" t="s">
+      <c r="I41" s="104" t="s">
         <v>242</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -12821,8 +14294,20 @@
       <c r="N41" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W41" s="3">
+        <v>154</v>
+      </c>
+      <c r="X41" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="3">
         <v>43174</v>
       </c>
@@ -12832,7 +14317,7 @@
       <c r="D42" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="89" t="s">
         <v>321</v>
       </c>
       <c r="G42" s="12">
@@ -12841,8 +14326,8 @@
       <c r="H42" s="19">
         <v>6338</v>
       </c>
-      <c r="I42" s="134" t="s">
-        <v>243</v>
+      <c r="I42" s="104" t="s">
+        <v>372</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>356</v>
@@ -12856,8 +14341,20 @@
       <c r="N42" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="W42" s="3">
+        <v>155</v>
+      </c>
+      <c r="X42" s="3">
+        <v>106</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43" s="3">
         <v>43175</v>
       </c>
@@ -12876,7 +14373,7 @@
       <c r="H43" s="19">
         <v>6338</v>
       </c>
-      <c r="I43" s="134" t="s">
+      <c r="I43" s="104" t="s">
         <v>244</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -12891,18 +14388,30 @@
       <c r="N43" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B44" s="111">
+      <c r="W43" s="3">
+        <v>156</v>
+      </c>
+      <c r="X43" s="3">
+        <v>107</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B44" s="81">
         <v>45228</v>
       </c>
       <c r="C44" s="19">
         <v>6328</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="E44" s="111">
+      <c r="E44" s="81">
         <v>4297</v>
       </c>
       <c r="G44" s="12">
@@ -12911,7 +14420,7 @@
       <c r="H44" s="19">
         <v>6338</v>
       </c>
-      <c r="I44" s="135" t="s">
+      <c r="I44" s="105" t="s">
         <v>245</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -12926,18 +14435,30 @@
       <c r="N44" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B45" s="111">
+      <c r="W44" s="3">
+        <v>157</v>
+      </c>
+      <c r="X44" s="3">
+        <v>108</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B45" s="81">
         <v>45229</v>
       </c>
       <c r="C45" s="19">
         <v>6328</v>
       </c>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="E45" s="111" t="s">
+      <c r="E45" s="81" t="s">
         <v>293</v>
       </c>
       <c r="G45" s="12">
@@ -12946,7 +14467,7 @@
       <c r="H45" s="19">
         <v>6338</v>
       </c>
-      <c r="I45" s="134" t="s">
+      <c r="I45" s="104" t="s">
         <v>251</v>
       </c>
       <c r="J45" s="3">
@@ -12961,18 +14482,30 @@
       <c r="N45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B46" s="111">
+      <c r="W45" s="3">
+        <v>158</v>
+      </c>
+      <c r="X45" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B46" s="81">
         <v>45230</v>
       </c>
       <c r="C46" s="19">
         <v>6328</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="E46" s="111" t="s">
+      <c r="E46" s="81" t="s">
         <v>295</v>
       </c>
       <c r="G46" s="12">
@@ -12981,24 +14514,36 @@
       <c r="H46" s="19">
         <v>6338</v>
       </c>
-      <c r="I46" s="135" t="s">
+      <c r="I46" s="105" t="s">
         <v>252</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B47" s="111">
+      <c r="W46" s="3">
+        <v>159</v>
+      </c>
+      <c r="X46" s="3">
+        <v>98</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B47" s="81">
         <v>45231</v>
       </c>
       <c r="C47" s="19">
         <v>6328</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="E47" s="111" t="s">
+      <c r="E47" s="81" t="s">
         <v>293</v>
       </c>
       <c r="G47" s="12">
@@ -13007,77 +14552,113 @@
       <c r="H47" s="19">
         <v>6338</v>
       </c>
-      <c r="I47" s="134" t="s">
+      <c r="I47" s="104" t="s">
         <v>253</v>
       </c>
       <c r="J47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="102" t="s">
+      <c r="L47" s="72" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B48" s="111">
+      <c r="W47" s="3">
+        <v>160</v>
+      </c>
+      <c r="X47" s="3">
+        <v>97</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B48" s="81">
         <v>45233</v>
       </c>
       <c r="C48" s="19">
         <v>6328</v>
       </c>
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="E48" s="111" t="s">
+      <c r="E48" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="L48" s="123" t="s">
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="L48" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="M48" s="73" t="s">
+      <c r="M48" s="43" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="B49" s="111">
+      <c r="W48" s="3">
+        <v>161</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" ht="21" x14ac:dyDescent="0.45">
+      <c r="B49" s="81">
         <v>45234</v>
       </c>
       <c r="C49" s="19">
         <v>6328</v>
       </c>
-      <c r="D49" s="108" t="s">
+      <c r="D49" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="E49" s="111" t="s">
+      <c r="E49" s="81" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="95" t="s">
+      <c r="G49" s="65" t="s">
         <v>284</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="L49" t="s">
         <v>331</v>
       </c>
-      <c r="M49" s="73" t="s">
+      <c r="M49" s="43" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B50" s="111">
+      <c r="W49" s="3">
+        <v>162</v>
+      </c>
+      <c r="X49" s="3">
+        <v>99</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B50" s="81">
         <v>45235</v>
       </c>
       <c r="C50" s="19">
         <v>6328</v>
       </c>
-      <c r="D50" s="108" t="s">
+      <c r="D50" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="E50" s="111" t="s">
+      <c r="E50" s="81" t="s">
         <v>302</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -13095,21 +14676,33 @@
       <c r="L50" t="s">
         <v>332</v>
       </c>
-      <c r="M50" s="73" t="s">
+      <c r="M50" s="43" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B51" s="111">
+      <c r="W50" s="3">
+        <v>163</v>
+      </c>
+      <c r="X50" s="3">
+        <v>95</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B51" s="81">
         <v>45236</v>
       </c>
       <c r="C51" s="19">
         <v>6328</v>
       </c>
-      <c r="D51" s="108" t="s">
+      <c r="D51" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="E51" s="111" t="s">
+      <c r="E51" s="81" t="s">
         <v>302</v>
       </c>
       <c r="G51" s="12">
@@ -13122,18 +14715,30 @@
         <v>285</v>
       </c>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B52" s="111">
+      <c r="W51" s="3">
+        <v>164</v>
+      </c>
+      <c r="X51" s="3">
+        <v>96</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B52" s="81">
         <v>45237</v>
       </c>
       <c r="C52" s="19">
         <v>6328</v>
       </c>
-      <c r="D52" s="108" t="s">
+      <c r="D52" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="E52" s="111" t="s">
+      <c r="E52" s="81" t="s">
         <v>302</v>
       </c>
       <c r="G52" s="12">
@@ -13148,18 +14753,30 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B53" s="111">
+      <c r="W52" s="3">
+        <v>165</v>
+      </c>
+      <c r="X52" s="3">
+        <v>106</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B53" s="81">
         <v>45238</v>
       </c>
       <c r="C53" s="19">
         <v>6328</v>
       </c>
-      <c r="D53" s="108" t="s">
+      <c r="D53" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="E53" s="111" t="s">
+      <c r="E53" s="81" t="s">
         <v>302</v>
       </c>
       <c r="G53" s="12">
@@ -13174,8 +14791,20 @@
       <c r="J53" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W53" s="3">
+        <v>166</v>
+      </c>
+      <c r="X53" s="3">
+        <v>107</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="3">
         <v>45257</v>
       </c>
@@ -13185,7 +14814,7 @@
       <c r="D54" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E54" s="119" t="s">
+      <c r="E54" s="89" t="s">
         <v>323</v>
       </c>
       <c r="G54" s="12">
@@ -13200,8 +14829,20 @@
       <c r="J54" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W54" s="3">
+        <v>167</v>
+      </c>
+      <c r="X54" s="3">
+        <v>109</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="3">
         <v>45258</v>
       </c>
@@ -13211,7 +14852,7 @@
       <c r="D55" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E55" s="119" t="s">
+      <c r="E55" s="89" t="s">
         <v>322</v>
       </c>
       <c r="G55" s="12">
@@ -13226,8 +14867,20 @@
       <c r="J55" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W55" s="3">
+        <v>168</v>
+      </c>
+      <c r="X55" s="3">
+        <v>108</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="3">
         <v>52440</v>
       </c>
@@ -13252,8 +14905,20 @@
       <c r="J56" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W56" s="3">
+        <v>169</v>
+      </c>
+      <c r="X56" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="3">
         <v>55362</v>
       </c>
@@ -13278,8 +14943,20 @@
       <c r="J57" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W57" s="3">
+        <v>170</v>
+      </c>
+      <c r="X57" s="3">
+        <v>104</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="3">
         <v>57616</v>
       </c>
@@ -13304,22 +14981,34 @@
       <c r="J58" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W58" s="3">
+        <v>171</v>
+      </c>
+      <c r="X58" s="3">
+        <v>102</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="3">
         <v>60102</v>
       </c>
       <c r="C59" s="19">
         <v>6328</v>
       </c>
-      <c r="D59" s="139" t="s">
+      <c r="D59" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="E59" s="118">
+      <c r="E59" s="88">
         <v>10000</v>
       </c>
-      <c r="F59" s="73" t="s">
-        <v>372</v>
+      <c r="F59" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="G59" s="12">
         <v>45217</v>
@@ -13333,22 +15022,34 @@
       <c r="J59" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W59" s="3">
+        <v>172</v>
+      </c>
+      <c r="X59" s="3">
+        <v>101</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="3">
         <v>60103</v>
       </c>
       <c r="C60" s="19">
         <v>6328</v>
       </c>
-      <c r="D60" s="139" t="s">
+      <c r="D60" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="E60" s="118">
+      <c r="E60" s="88">
         <v>15000</v>
       </c>
-      <c r="F60" s="73" t="s">
-        <v>373</v>
+      <c r="F60" s="43" t="s">
+        <v>371</v>
       </c>
       <c r="G60" s="12">
         <v>45218</v>
@@ -13362,8 +15063,20 @@
       <c r="J60" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W60" s="3">
+        <v>173</v>
+      </c>
+      <c r="X60" s="3">
+        <v>103</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="3">
         <v>60170</v>
       </c>
@@ -13373,7 +15086,7 @@
       <c r="D61" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E61" s="119" t="s">
+      <c r="E61" s="89" t="s">
         <v>325</v>
       </c>
       <c r="G61" s="12">
@@ -13388,12 +15101,24 @@
       <c r="J61" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B62" s="114"/>
-      <c r="C62" s="115"/>
+      <c r="W61" s="3">
+        <v>174</v>
+      </c>
+      <c r="X61" s="3">
+        <v>110</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B62" s="84"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="116"/>
+      <c r="E62" s="86"/>
       <c r="G62" s="12">
         <v>45220</v>
       </c>
@@ -13406,12 +15131,22 @@
       <c r="J62" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B63" s="114"/>
-      <c r="C63" s="115"/>
+      <c r="W62" s="3">
+        <v>175</v>
+      </c>
+      <c r="X62" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B63" s="84"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="116"/>
+      <c r="E63" s="86"/>
       <c r="G63" s="12">
         <v>45221</v>
       </c>
@@ -13424,12 +15159,24 @@
       <c r="J63" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B64" s="114"/>
-      <c r="C64" s="115"/>
+      <c r="W63" s="3">
+        <v>176</v>
+      </c>
+      <c r="X63" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="116"/>
+      <c r="E64" s="86"/>
       <c r="G64" s="12">
         <v>45222</v>
       </c>
@@ -13442,12 +15189,24 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
+      <c r="W64" s="3">
+        <v>177</v>
+      </c>
+      <c r="X64" s="3">
+        <v>117</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="116"/>
+      <c r="E65" s="86"/>
       <c r="G65" s="12">
         <v>45223</v>
       </c>
@@ -13460,385 +15219,541 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B66" s="114"/>
-      <c r="C66" s="115"/>
+      <c r="W65" s="3">
+        <v>178</v>
+      </c>
+      <c r="X65" s="3">
+        <v>118</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="116"/>
+      <c r="E66" s="86"/>
       <c r="G66" s="12">
         <v>45224</v>
       </c>
       <c r="H66" s="19">
         <v>6436</v>
       </c>
-      <c r="I66" s="134" t="s">
+      <c r="I66" s="104" t="s">
         <v>242</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B67" s="114"/>
-      <c r="C67" s="115"/>
+        <v>368</v>
+      </c>
+      <c r="W66" s="3">
+        <v>179</v>
+      </c>
+      <c r="X66" s="4">
+        <v>95</v>
+      </c>
+      <c r="Y66" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z66" s="157">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B67" s="84"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="116"/>
+      <c r="E67" s="86"/>
       <c r="G67" s="12">
         <v>45225</v>
       </c>
       <c r="H67" s="19">
         <v>6436</v>
       </c>
-      <c r="I67" s="134" t="s">
-        <v>243</v>
+      <c r="I67" s="104" t="s">
+        <v>372</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B68" s="114"/>
-      <c r="C68" s="115"/>
+        <v>368</v>
+      </c>
+      <c r="W67" s="3">
+        <v>180</v>
+      </c>
+      <c r="X67" s="4">
+        <v>96</v>
+      </c>
+      <c r="Y67" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z67" s="157">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B68" s="84"/>
+      <c r="C68" s="85"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="116"/>
+      <c r="E68" s="86"/>
       <c r="G68" s="12">
         <v>45226</v>
       </c>
       <c r="H68" s="19">
         <v>6436</v>
       </c>
-      <c r="I68" s="134" t="s">
+      <c r="I68" s="104" t="s">
         <v>244</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B69" s="114"/>
-      <c r="C69" s="115"/>
+        <v>369</v>
+      </c>
+      <c r="W68" s="3">
+        <v>181</v>
+      </c>
+      <c r="X68" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y68" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z68" s="157">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B69" s="84"/>
+      <c r="C69" s="85"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="116"/>
+      <c r="E69" s="86"/>
       <c r="G69" s="12">
         <v>45227</v>
       </c>
       <c r="H69" s="19">
         <v>6436</v>
       </c>
-      <c r="I69" s="135" t="s">
+      <c r="I69" s="105" t="s">
         <v>245</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B70" s="114"/>
-      <c r="C70" s="115"/>
+      <c r="W69" s="3">
+        <v>182</v>
+      </c>
+      <c r="X69" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y69" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z69" s="157">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B70" s="84"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="116"/>
+      <c r="E70" s="86"/>
       <c r="G70" s="3">
         <v>45334</v>
       </c>
       <c r="H70" s="19">
         <v>6436</v>
       </c>
-      <c r="I70" s="134" t="s">
+      <c r="I70" s="104" t="s">
         <v>251</v>
       </c>
       <c r="J70" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B71" s="114"/>
-      <c r="C71" s="115"/>
+      <c r="W70" s="3">
+        <v>183</v>
+      </c>
+      <c r="X70" s="4">
+        <v>97</v>
+      </c>
+      <c r="Y70" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z70" s="157">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B71" s="84"/>
+      <c r="C71" s="85"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="116"/>
+      <c r="E71" s="86"/>
       <c r="G71" s="3">
         <v>45335</v>
       </c>
       <c r="H71" s="19">
         <v>6436</v>
       </c>
-      <c r="I71" s="135" t="s">
+      <c r="I71" s="105" t="s">
         <v>252</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B72" s="114"/>
-      <c r="C72" s="115"/>
+      <c r="W71" s="3">
+        <v>184</v>
+      </c>
+      <c r="X71" s="4">
+        <v>98</v>
+      </c>
+      <c r="Y71" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z71" s="157">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B72" s="84"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="116"/>
+      <c r="E72" s="86"/>
       <c r="G72" s="3">
         <v>45336</v>
       </c>
       <c r="H72" s="19">
         <v>6436</v>
       </c>
-      <c r="I72" s="135" t="s">
+      <c r="I72" s="105" t="s">
         <v>253</v>
       </c>
       <c r="J72" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B73" s="114"/>
-      <c r="C73" s="115"/>
+      <c r="W72" s="3">
+        <v>185</v>
+      </c>
+      <c r="X72" s="4">
+        <v>104</v>
+      </c>
+      <c r="Y72" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z72" s="157">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B73" s="84"/>
+      <c r="C73" s="85"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="116"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B74" s="114"/>
-      <c r="C74" s="115"/>
+      <c r="E73" s="86"/>
+      <c r="W73" s="3">
+        <v>186</v>
+      </c>
+      <c r="X73" s="4">
+        <v>105</v>
+      </c>
+      <c r="Y73" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z73" s="157">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B74" s="84"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="116"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B75" s="114"/>
-      <c r="C75" s="115"/>
+      <c r="E74" s="86"/>
+      <c r="W74" s="3">
+        <v>187</v>
+      </c>
+      <c r="X74" s="4">
+        <v>106</v>
+      </c>
+      <c r="Y74" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z74" s="157">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B75" s="84"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="116"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B76" s="114"/>
-      <c r="C76" s="115"/>
+      <c r="E75" s="86"/>
+      <c r="W75" s="3">
+        <v>188</v>
+      </c>
+      <c r="X75" s="4">
+        <v>107</v>
+      </c>
+      <c r="Y75" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z75" s="157">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B76" s="84"/>
+      <c r="C76" s="85"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="116"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B77" s="114"/>
-      <c r="C77" s="115"/>
+      <c r="E76" s="86"/>
+      <c r="W76" s="3">
+        <v>189</v>
+      </c>
+      <c r="X76" s="4">
+        <v>108</v>
+      </c>
+      <c r="Y76" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z76" s="157">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="B77" s="84"/>
+      <c r="C77" s="85"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="116"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B78" s="114"/>
-      <c r="C78" s="115"/>
+      <c r="E77" s="86"/>
+      <c r="W77" s="3">
+        <v>190</v>
+      </c>
+      <c r="X77" s="4">
+        <v>109</v>
+      </c>
+      <c r="Y77" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z77" s="157">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B78" s="84"/>
+      <c r="C78" s="85"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="116"/>
-    </row>
-    <row r="80" spans="2:10" ht="22.2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="113" t="s">
+      <c r="E78" s="86"/>
+    </row>
+    <row r="80" spans="2:26" ht="22.2" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="83" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:24" ht="22.8" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="74"/>
-      <c r="B82" s="95" t="s">
+      <c r="A82" s="44"/>
+      <c r="B82" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="75"/>
-      <c r="U82" s="75"/>
-      <c r="V82" s="75"/>
-      <c r="W82" s="75"/>
-      <c r="X82" s="75"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="45"/>
+      <c r="Q82" s="45"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="45"/>
+      <c r="W82" s="45"/>
+      <c r="X82" s="45"/>
     </row>
     <row r="83" spans="1:24" s="2" customFormat="1" ht="31.8" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="74"/>
-      <c r="B83" s="106" t="s">
+      <c r="A83" s="44"/>
+      <c r="B83" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="97" t="s">
+      <c r="C83" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="83" t="s">
+      <c r="D83" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="83" t="s">
+      <c r="E83" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="83" t="s">
+      <c r="F83" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="G83" s="83" t="s">
+      <c r="G83" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="H83" s="83" t="s">
+      <c r="H83" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="I83" s="83" t="s">
+      <c r="I83" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="J83" s="84" t="s">
+      <c r="J83" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="K83" s="83" t="s">
+      <c r="K83" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="L83" s="84" t="s">
+      <c r="L83" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="M83" s="84" t="s">
+      <c r="M83" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="N83" s="83" t="s">
+      <c r="N83" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="O83" s="83" t="s">
+      <c r="O83" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="P83" s="83" t="s">
+      <c r="P83" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="Q83" s="83" t="s">
+      <c r="Q83" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="R83" s="83" t="s">
+      <c r="R83" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="S83" s="83" t="s">
+      <c r="S83" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="T83" s="83" t="s">
+      <c r="T83" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="U83" s="83" t="s">
+      <c r="U83" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="V83" s="83" t="s">
+      <c r="V83" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="W83" s="83" t="s">
+      <c r="W83" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="X83" s="83" t="s">
+      <c r="X83" s="53" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="31.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="74"/>
-      <c r="B84" s="99">
+      <c r="A84" s="44"/>
+      <c r="B84" s="69">
         <v>6329</v>
       </c>
-      <c r="C84" s="98">
-        <v>1</v>
-      </c>
-      <c r="D84" s="79">
+      <c r="C84" s="68">
+        <v>1</v>
+      </c>
+      <c r="D84" s="49">
         <v>44589.652372685188</v>
       </c>
-      <c r="E84" s="81">
+      <c r="E84" s="51">
         <v>44589.277372685188</v>
       </c>
-      <c r="F84" s="78"/>
-      <c r="G84" s="82" t="s">
+      <c r="F84" s="48"/>
+      <c r="G84" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="H84" s="80" t="s">
+      <c r="H84" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="78" t="s">
+      <c r="I84" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="78" t="s">
+      <c r="J84" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="K84" s="78" t="s">
+      <c r="K84" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="L84" s="78"/>
-      <c r="M84" s="78" t="s">
+      <c r="L84" s="48"/>
+      <c r="M84" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="N84" s="78"/>
-      <c r="O84" s="78"/>
-      <c r="P84" s="81">
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="51">
         <v>44637.608877314815</v>
       </c>
-      <c r="Q84" s="81">
+      <c r="Q84" s="51">
         <v>44637.233877314815</v>
       </c>
-      <c r="R84" s="78"/>
-      <c r="S84" s="86">
+      <c r="R84" s="48"/>
+      <c r="S84" s="56">
         <v>6328</v>
       </c>
-      <c r="T84" s="78" t="s">
+      <c r="T84" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="U84" s="77">
+      <c r="U84" s="47">
         <v>59</v>
       </c>
-      <c r="V84" s="86" t="s">
+      <c r="V84" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="W84" s="78"/>
-      <c r="X84" s="78">
+      <c r="W84" s="48"/>
+      <c r="X84" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="22.2" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="74"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="90"/>
-      <c r="Q85" s="90"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="94"/>
-      <c r="T85" s="91"/>
-      <c r="U85" s="88"/>
-      <c r="V85" s="94"/>
-      <c r="W85" s="91"/>
-      <c r="X85" s="91"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="64"/>
+      <c r="T85" s="61"/>
+      <c r="U85" s="58"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
     </row>
     <row r="86" spans="1:24" ht="21.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="95" t="s">
+      <c r="B86" s="65" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="G86" s="95" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="G86" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="K86" s="95" t="s">
+      <c r="K86" s="65" t="s">
         <v>341</v>
       </c>
-      <c r="O86" s="70"/>
-      <c r="P86" s="70"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="105" t="s">
+      <c r="C87" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="42" t="s">
         <v>226</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -13847,28 +15762,28 @@
       <c r="G87" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="H87" s="124" t="s">
+      <c r="H87" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="I87" s="72" t="s">
+      <c r="I87" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="K87" s="105" t="s">
+      <c r="K87" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="L87" s="72" t="s">
+      <c r="L87" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="M87" s="131" t="s">
+      <c r="M87" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="N87" s="72" t="s">
+      <c r="N87" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="O87" s="72" t="s">
+      <c r="O87" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="P87" s="72" t="s">
+      <c r="P87" s="42" t="s">
         <v>348</v>
       </c>
     </row>
@@ -13876,38 +15791,38 @@
       <c r="B88" s="15">
         <v>43176</v>
       </c>
-      <c r="C88" s="103">
+      <c r="C88" s="73">
         <v>6329</v>
       </c>
-      <c r="D88" s="69" t="s">
+      <c r="D88" s="39" t="s">
         <v>285</v>
       </c>
       <c r="E88" s="3"/>
-      <c r="G88" s="128">
+      <c r="G88" s="98">
         <v>4</v>
       </c>
-      <c r="H88" s="125">
+      <c r="H88" s="95">
         <v>6328</v>
       </c>
-      <c r="I88" s="69">
-        <v>0</v>
-      </c>
-      <c r="K88" s="127">
+      <c r="I88" s="39">
+        <v>0</v>
+      </c>
+      <c r="K88" s="97">
         <v>98</v>
       </c>
       <c r="L88" s="16">
         <v>98</v>
       </c>
-      <c r="M88" s="132" t="s">
+      <c r="M88" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="N88" s="130" t="s">
+      <c r="N88" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="O88" s="69">
-        <v>0</v>
-      </c>
-      <c r="P88" s="69">
+      <c r="O88" s="39">
+        <v>0</v>
+      </c>
+      <c r="P88" s="39">
         <v>2</v>
       </c>
     </row>
@@ -13915,22 +15830,22 @@
       <c r="B89" s="15">
         <v>43177</v>
       </c>
-      <c r="C89" s="103">
+      <c r="C89" s="73">
         <v>6329</v>
       </c>
-      <c r="D89" s="69" t="s">
+      <c r="D89" s="39" t="s">
         <v>228</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="126">
+      <c r="G89" s="96">
         <v>14</v>
       </c>
-      <c r="H89" s="103">
+      <c r="H89" s="73">
         <v>6328</v>
       </c>
-      <c r="I89" s="69">
+      <c r="I89" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13938,10 +15853,10 @@
       <c r="B90" s="15">
         <v>43178</v>
       </c>
-      <c r="C90" s="103">
+      <c r="C90" s="73">
         <v>6329</v>
       </c>
-      <c r="D90" s="69" t="s">
+      <c r="D90" s="39" t="s">
         <v>229</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -13950,10 +15865,10 @@
       <c r="G90" s="15">
         <v>92</v>
       </c>
-      <c r="H90" s="103">
+      <c r="H90" s="73">
         <v>6328</v>
       </c>
-      <c r="I90" s="69">
+      <c r="I90" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13961,10 +15876,10 @@
       <c r="B91" s="15">
         <v>43179</v>
       </c>
-      <c r="C91" s="103">
+      <c r="C91" s="73">
         <v>6329</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="39" t="s">
         <v>230</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -13973,13 +15888,13 @@
       <c r="G91" s="15">
         <v>93</v>
       </c>
-      <c r="H91" s="103">
+      <c r="H91" s="73">
         <v>6328</v>
       </c>
-      <c r="I91" s="69">
-        <v>0</v>
-      </c>
-      <c r="K91" s="95" t="s">
+      <c r="I91" s="39">
+        <v>0</v>
+      </c>
+      <c r="K91" s="65" t="s">
         <v>342</v>
       </c>
     </row>
@@ -13987,10 +15902,10 @@
       <c r="B92" s="15">
         <v>43180</v>
       </c>
-      <c r="C92" s="103">
+      <c r="C92" s="73">
         <v>6329</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="39" t="s">
         <v>231</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -13999,22 +15914,22 @@
       <c r="G92" s="15">
         <v>95</v>
       </c>
-      <c r="H92" s="103">
+      <c r="H92" s="73">
         <v>6328</v>
       </c>
-      <c r="I92" s="69">
-        <v>0</v>
-      </c>
-      <c r="K92" s="105" t="s">
+      <c r="I92" s="39">
+        <v>0</v>
+      </c>
+      <c r="K92" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="L92" s="72" t="s">
+      <c r="L92" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="M92" s="131" t="s">
+      <c r="M92" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="N92" s="72" t="s">
+      <c r="N92" s="42" t="s">
         <v>353</v>
       </c>
     </row>
@@ -14022,10 +15937,10 @@
       <c r="B93" s="15">
         <v>43181</v>
       </c>
-      <c r="C93" s="103">
+      <c r="C93" s="73">
         <v>6329</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="39" t="s">
         <v>232</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -14034,19 +15949,19 @@
       <c r="G93" s="15">
         <v>96</v>
       </c>
-      <c r="H93" s="103">
+      <c r="H93" s="73">
         <v>6328</v>
       </c>
-      <c r="I93" s="69">
-        <v>0</v>
-      </c>
-      <c r="K93" s="127">
+      <c r="I93" s="39">
+        <v>0</v>
+      </c>
+      <c r="K93" s="97">
         <v>98</v>
       </c>
       <c r="L93" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="M93" s="132" t="s">
+      <c r="M93" s="102" t="s">
         <v>351</v>
       </c>
       <c r="N93" s="16">
@@ -14057,22 +15972,22 @@
       <c r="B94" s="15">
         <v>43182</v>
       </c>
-      <c r="C94" s="103">
+      <c r="C94" s="73">
         <v>6329</v>
       </c>
-      <c r="D94" s="69" t="s">
+      <c r="D94" s="39" t="s">
         <v>233</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G94" s="129">
+      <c r="G94" s="99">
         <v>97</v>
       </c>
-      <c r="H94" s="103">
+      <c r="H94" s="73">
         <v>6328</v>
       </c>
-      <c r="I94" s="69">
+      <c r="I94" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14080,22 +15995,22 @@
       <c r="B95" s="15">
         <v>43183</v>
       </c>
-      <c r="C95" s="103">
+      <c r="C95" s="73">
         <v>6329</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="39" t="s">
         <v>234</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G95" s="133">
+      <c r="G95" s="103">
         <v>98</v>
       </c>
-      <c r="H95" s="125">
+      <c r="H95" s="95">
         <v>6328</v>
       </c>
-      <c r="I95" s="69">
+      <c r="I95" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14103,22 +16018,22 @@
       <c r="B96" s="15">
         <v>43184</v>
       </c>
-      <c r="C96" s="103">
+      <c r="C96" s="73">
         <v>6329</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="39" t="s">
         <v>235</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G96" s="126">
+      <c r="G96" s="96">
         <v>99</v>
       </c>
-      <c r="H96" s="103">
+      <c r="H96" s="73">
         <v>6328</v>
       </c>
-      <c r="I96" s="69">
+      <c r="I96" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14126,10 +16041,10 @@
       <c r="B97" s="15">
         <v>43185</v>
       </c>
-      <c r="C97" s="103">
+      <c r="C97" s="73">
         <v>6329</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="39" t="s">
         <v>236</v>
       </c>
       <c r="E97" s="3">
@@ -14138,10 +16053,10 @@
       <c r="G97" s="15">
         <v>100</v>
       </c>
-      <c r="H97" s="103">
+      <c r="H97" s="73">
         <v>6328</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14149,10 +16064,10 @@
       <c r="B98" s="15">
         <v>43186</v>
       </c>
-      <c r="C98" s="103">
+      <c r="C98" s="73">
         <v>6329</v>
       </c>
-      <c r="D98" s="69" t="s">
+      <c r="D98" s="39" t="s">
         <v>237</v>
       </c>
       <c r="E98" s="3">
@@ -14161,10 +16076,10 @@
       <c r="G98" s="15">
         <v>101</v>
       </c>
-      <c r="H98" s="103">
+      <c r="H98" s="73">
         <v>6328</v>
       </c>
-      <c r="I98" s="69">
+      <c r="I98" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14172,10 +16087,10 @@
       <c r="B99" s="15">
         <v>43187</v>
       </c>
-      <c r="C99" s="103">
+      <c r="C99" s="73">
         <v>6329</v>
       </c>
-      <c r="D99" s="69" t="s">
+      <c r="D99" s="39" t="s">
         <v>238</v>
       </c>
       <c r="E99" s="3">
@@ -14184,10 +16099,10 @@
       <c r="G99" s="15">
         <v>102</v>
       </c>
-      <c r="H99" s="103">
+      <c r="H99" s="73">
         <v>6328</v>
       </c>
-      <c r="I99" s="69">
+      <c r="I99" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14195,10 +16110,10 @@
       <c r="B100" s="15">
         <v>43188</v>
       </c>
-      <c r="C100" s="103">
+      <c r="C100" s="73">
         <v>6329</v>
       </c>
-      <c r="D100" s="69" t="s">
+      <c r="D100" s="39" t="s">
         <v>239</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -14207,10 +16122,10 @@
       <c r="G100" s="15">
         <v>103</v>
       </c>
-      <c r="H100" s="103">
+      <c r="H100" s="73">
         <v>6328</v>
       </c>
-      <c r="I100" s="69">
+      <c r="I100" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14218,10 +16133,10 @@
       <c r="B101" s="15">
         <v>43189</v>
       </c>
-      <c r="C101" s="103">
+      <c r="C101" s="73">
         <v>6329</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="39" t="s">
         <v>240</v>
       </c>
       <c r="E101" s="3">
@@ -14230,10 +16145,10 @@
       <c r="G101" s="15">
         <v>104</v>
       </c>
-      <c r="H101" s="103">
+      <c r="H101" s="73">
         <v>6328</v>
       </c>
-      <c r="I101" s="69">
+      <c r="I101" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14241,10 +16156,10 @@
       <c r="B102" s="15">
         <v>43190</v>
       </c>
-      <c r="C102" s="103">
+      <c r="C102" s="73">
         <v>6329</v>
       </c>
-      <c r="D102" s="69" t="s">
+      <c r="D102" s="39" t="s">
         <v>241</v>
       </c>
       <c r="E102" s="3">
@@ -14253,10 +16168,10 @@
       <c r="G102" s="15">
         <v>105</v>
       </c>
-      <c r="H102" s="103">
+      <c r="H102" s="73">
         <v>6328</v>
       </c>
-      <c r="I102" s="69">
+      <c r="I102" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14264,10 +16179,10 @@
       <c r="B103" s="15">
         <v>43191</v>
       </c>
-      <c r="C103" s="103">
+      <c r="C103" s="73">
         <v>6329</v>
       </c>
-      <c r="D103" s="101" t="s">
+      <c r="D103" s="71" t="s">
         <v>242</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -14276,10 +16191,10 @@
       <c r="G103" s="15">
         <v>106</v>
       </c>
-      <c r="H103" s="103">
+      <c r="H103" s="73">
         <v>6328</v>
       </c>
-      <c r="I103" s="69">
+      <c r="I103" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14287,10 +16202,10 @@
       <c r="B104" s="15">
         <v>43192</v>
       </c>
-      <c r="C104" s="103">
+      <c r="C104" s="73">
         <v>6329</v>
       </c>
-      <c r="D104" s="101" t="s">
+      <c r="D104" s="71" t="s">
         <v>243</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -14299,10 +16214,10 @@
       <c r="G104" s="15">
         <v>107</v>
       </c>
-      <c r="H104" s="103">
+      <c r="H104" s="73">
         <v>6328</v>
       </c>
-      <c r="I104" s="69">
+      <c r="I104" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14310,10 +16225,10 @@
       <c r="B105" s="15">
         <v>43193</v>
       </c>
-      <c r="C105" s="103">
+      <c r="C105" s="73">
         <v>6329</v>
       </c>
-      <c r="D105" s="101" t="s">
+      <c r="D105" s="71" t="s">
         <v>244</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -14322,10 +16237,10 @@
       <c r="G105" s="15">
         <v>108</v>
       </c>
-      <c r="H105" s="103">
+      <c r="H105" s="73">
         <v>6328</v>
       </c>
-      <c r="I105" s="69">
+      <c r="I105" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14333,10 +16248,10 @@
       <c r="B106" s="15">
         <v>43194</v>
       </c>
-      <c r="C106" s="103">
+      <c r="C106" s="73">
         <v>6329</v>
       </c>
-      <c r="D106" s="100" t="s">
+      <c r="D106" s="70" t="s">
         <v>245</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -14345,10 +16260,10 @@
       <c r="G106" s="15">
         <v>109</v>
       </c>
-      <c r="H106" s="103">
+      <c r="H106" s="73">
         <v>6328</v>
       </c>
-      <c r="I106" s="69">
+      <c r="I106" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14356,10 +16271,10 @@
       <c r="B107" s="15">
         <v>45649</v>
       </c>
-      <c r="C107" s="103">
+      <c r="C107" s="73">
         <v>6329</v>
       </c>
-      <c r="D107" s="101" t="s">
+      <c r="D107" s="71" t="s">
         <v>251</v>
       </c>
       <c r="E107" s="3">
@@ -14368,10 +16283,10 @@
       <c r="G107" s="15">
         <v>110</v>
       </c>
-      <c r="H107" s="103">
+      <c r="H107" s="73">
         <v>6328</v>
       </c>
-      <c r="I107" s="69">
+      <c r="I107" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14379,10 +16294,10 @@
       <c r="B108" s="15">
         <v>45650</v>
       </c>
-      <c r="C108" s="103">
+      <c r="C108" s="73">
         <v>6329</v>
       </c>
-      <c r="D108" s="100" t="s">
+      <c r="D108" s="70" t="s">
         <v>252</v>
       </c>
       <c r="E108" s="3">
@@ -14393,10 +16308,10 @@
       <c r="B109" s="15">
         <v>45651</v>
       </c>
-      <c r="C109" s="104">
+      <c r="C109" s="74">
         <v>6329</v>
       </c>
-      <c r="D109" s="100" t="s">
+      <c r="D109" s="70" t="s">
         <v>253</v>
       </c>
       <c r="E109" s="3">
@@ -14404,19 +16319,19 @@
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B111" s="102"/>
+      <c r="B111" s="72"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B112" s="123"/>
-      <c r="C112" s="73"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="43"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B113"/>
-      <c r="C113" s="73"/>
+      <c r="C113" s="43"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B114"/>
-      <c r="C114" s="73"/>
+      <c r="C114" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -14427,4 +16342,868 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E01C1DB-CCF5-4D9A-A2E1-751D5F66ED10}">
+  <dimension ref="A2:Z69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="12" max="12" width="24.19921875" customWidth="1"/>
+    <col min="13" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="16" width="16.796875" customWidth="1"/>
+    <col min="17" max="18" width="23" customWidth="1"/>
+    <col min="19" max="19" width="14.296875" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="20.09765625" customWidth="1"/>
+    <col min="23" max="23" width="20.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="B2" s="167" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="B3" s="168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="169" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+    </row>
+    <row r="5" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="B5" s="168" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="B6" s="171"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+    </row>
+    <row r="9" spans="1:26" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="44"/>
+      <c r="B9" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="R9" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="S9" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="T9" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="U9" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="V9" s="120" t="s">
+        <v>280</v>
+      </c>
+      <c r="W9" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="X9" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44"/>
+      <c r="B10" s="55">
+        <v>5053</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="158">
+        <v>44581.707627314812</v>
+      </c>
+      <c r="E10" s="158">
+        <v>44581.332627314812</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="158">
+        <v>44643.703344907408</v>
+      </c>
+      <c r="Q10" s="158">
+        <v>44643.328344907408</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="44"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+    </row>
+    <row r="12" spans="1:26" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B12" s="44"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+    </row>
+    <row r="13" spans="1:26" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B13" s="44"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+    </row>
+    <row r="14" spans="1:26" ht="21" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="G14" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="155" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="154" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="153" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="152" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
+        <v>60175</v>
+      </c>
+      <c r="C16" s="55">
+        <v>5053</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="3">
+        <v>179</v>
+      </c>
+      <c r="H16" s="55">
+        <v>95</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16" s="55">
+        <v>5053</v>
+      </c>
+      <c r="L16" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="N16" s="121" t="s">
+        <v>344</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
+        <v>25027</v>
+      </c>
+      <c r="C17" s="55">
+        <v>5053</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="3">
+        <v>185</v>
+      </c>
+      <c r="H17" s="55">
+        <v>104</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" s="55">
+        <v>5053</v>
+      </c>
+      <c r="L17" s="55">
+        <v>95</v>
+      </c>
+      <c r="M17" s="55">
+        <v>95</v>
+      </c>
+      <c r="N17" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <v>25028</v>
+      </c>
+      <c r="C18" s="55">
+        <v>5053</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="L18" s="55">
+        <v>104</v>
+      </c>
+      <c r="M18" s="55">
+        <v>104</v>
+      </c>
+      <c r="N18" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="84"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="84"/>
+      <c r="L20" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="84"/>
+      <c r="L21" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="N21" s="121" t="s">
+        <v>352</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="84"/>
+      <c r="L22" s="55">
+        <v>95</v>
+      </c>
+      <c r="M22" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="N22" s="165" t="s">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="L23" s="55">
+        <v>104</v>
+      </c>
+      <c r="M23" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="N23" s="165" t="s">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="84"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="84"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="84"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="84"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="84"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="84"/>
+    </row>
+    <row r="32" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="159"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="84"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="160"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="160"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="160"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="160"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="160"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="160"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="160"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="160"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="160"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="160"/>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="159"/>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="159"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="84"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="84"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="84"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="163"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="163"/>
+    </row>
+    <row r="51" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="159"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="86"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="86"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="86"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="86"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="86"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="86"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="86"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="86"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="86"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="86"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="86"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="86"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="86"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="86"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="86"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="86"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="86"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>